--- a/wifi_scan.xlsx
+++ b/wifi_scan.xlsx
@@ -502,27 +502,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>D4:BD:4F:13:83:D8</t>
+          <t>8C:0C:90:3C:38:58</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:21</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:49</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:33</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11</t>
+          <t xml:space="preserve"> 10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 360</t>
+          <t xml:space="preserve"> 130</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -542,7 +542,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -68</t>
+          <t xml:space="preserve"> -70</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -562,12 +562,12 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  15</t>
+          <t xml:space="preserve">  12</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New Boys Hostel</t>
+          <t xml:space="preserve"> PCET Wi-Fi 5</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -579,27 +579,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>D4:BD:4F:93:83:D8</t>
+          <t>8C:0C:90:BC:38:51</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:21</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:49</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:33</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11</t>
+          <t xml:space="preserve"> 10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 360</t>
+          <t xml:space="preserve"> 130</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -619,12 +619,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -68</t>
+          <t xml:space="preserve"> -75</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t xml:space="preserve">        9</t>
+          <t xml:space="preserve">        7</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -639,12 +639,12 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  17</t>
+          <t xml:space="preserve">  13</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New Boys Hostel 2</t>
+          <t xml:space="preserve"> PCET Wi-Fi 21</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -656,27 +656,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>D4:BD:4F:D3:83:D8</t>
+          <t>8C:0C:90:7C:38:5A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:21</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:49</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:33</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11</t>
+          <t xml:space="preserve"> 10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 360</t>
+          <t xml:space="preserve"> 130</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -696,12 +696,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -68</t>
+          <t xml:space="preserve"> -72</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t xml:space="preserve">       10</t>
+          <t xml:space="preserve">        7</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  17</t>
+          <t xml:space="preserve">  13</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New Boys Hostel 3</t>
+          <t xml:space="preserve"> PCET Wi-Fi 13</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -733,27 +733,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>D4:BD:4F:13:83:D9</t>
+          <t>8C:0C:90:7C:38:51</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:21</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:49</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:33</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11</t>
+          <t xml:space="preserve"> 10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 360</t>
+          <t xml:space="preserve"> 130</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -68</t>
+          <t xml:space="preserve"> -72</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t xml:space="preserve">       10</t>
+          <t xml:space="preserve">        9</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12</t>
+          <t xml:space="preserve">  13</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Girls Hostel</t>
+          <t xml:space="preserve"> PCET Wi-Fi 20</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -810,27 +810,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>D4:BD:4F:53:83:DA</t>
+          <t>8C:0C:90:BC:38:5A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:21</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:49</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:33</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11</t>
+          <t xml:space="preserve"> 10</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 360</t>
+          <t xml:space="preserve"> 130</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -850,12 +850,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -67</t>
+          <t xml:space="preserve"> -72</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t xml:space="preserve">        5</t>
+          <t xml:space="preserve">        6</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -870,12 +870,12 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  14</t>
+          <t xml:space="preserve">  13</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Girls Hostel 3</t>
+          <t xml:space="preserve"> PCET Wi-Fi 14</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -887,27 +887,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>D4:BD:4F:93:83:DA</t>
+          <t>8C:0C:90:7C:38:50</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:21</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:49</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:33</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11</t>
+          <t xml:space="preserve"> 10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 360</t>
+          <t xml:space="preserve"> 130</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -927,12 +927,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -68</t>
+          <t xml:space="preserve"> -73</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t xml:space="preserve">        7</t>
+          <t xml:space="preserve">        9</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -947,12 +947,12 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t xml:space="preserve">  17</t>
+          <t xml:space="preserve">  12</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New Boys Hostel 5</t>
+          <t xml:space="preserve"> PCET Wi-Fi 1</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -964,27 +964,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>D4:BD:4F:D3:83:DA</t>
+          <t>8C:0C:90:BC:38:5B</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:21</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:49</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:33</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:03</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11</t>
+          <t xml:space="preserve"> 10</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 360</t>
+          <t xml:space="preserve"> 130</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -67</t>
+          <t xml:space="preserve"> -78</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t xml:space="preserve">       10</t>
+          <t xml:space="preserve">        6</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1024,12 +1024,12 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  17</t>
+          <t xml:space="preserve">  13</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New Boys Hostel 6</t>
+          <t xml:space="preserve"> PCET Wi-Fi 18</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1041,27 +1041,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>D4:BD:4F:13:83:DB</t>
+          <t>8C:0C:90:3C:38:50</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:21</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:49</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:33</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11</t>
+          <t xml:space="preserve"> 10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 360</t>
+          <t xml:space="preserve"> 130</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -68</t>
+          <t xml:space="preserve"> -79</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1101,12 +1101,12 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11</t>
+          <t xml:space="preserve">  10</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Guest Users</t>
+          <t xml:space="preserve"> PCET Wi-Fi</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1118,52 +1118,52 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BE:FA:11:79:13:2D</t>
+          <t>8C:0C:90:FC:38:5B</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:21</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:49</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:33</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11</t>
+          <t xml:space="preserve"> 10</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 180</t>
+          <t xml:space="preserve"> 130</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WPA2</t>
+          <t xml:space="preserve"> OPN</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CCMP</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSK</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -64</t>
+          <t xml:space="preserve"> -72</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t xml:space="preserve">       11</t>
+          <t xml:space="preserve">        9</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1178,12 +1178,12 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  17</t>
+          <t xml:space="preserve">  13</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Redmi Note 11T 5G</t>
+          <t xml:space="preserve"> PCET Wi-Fi 19</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1195,22 +1195,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2A:C5:D2:FB:71:65</t>
+          <t>4C:D5:77:BF:90:39</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:21</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:33</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11</t>
+          <t xml:space="preserve">  1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WPA2</t>
+          <t xml:space="preserve"> WPA3 WPA2</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1230,17 +1230,17 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSK</t>
+          <t xml:space="preserve"> SAE CMAC PSK</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -69</t>
+          <t xml:space="preserve"> -87</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t xml:space="preserve">       14</t>
+          <t xml:space="preserve">        6</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1255,12 +1255,12 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t xml:space="preserve">  10</t>
+          <t xml:space="preserve">   8</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Checkpoint</t>
+          <t xml:space="preserve"> SDC Club</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1272,32 +1272,32 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>70:9C:D1:87:99:C5</t>
+          <t>5E:20:04:8B:56:22</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:21</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:33</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:01</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11</t>
+          <t xml:space="preserve">  1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 130</t>
+          <t xml:space="preserve"> 360</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WPA3 WPA2</t>
+          <t xml:space="preserve"> WPA2</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1307,17 +1307,17 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SAE CMAC PSK</t>
+          <t xml:space="preserve"> PSK</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -43</t>
+          <t xml:space="preserve"> -76</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t xml:space="preserve">        8</t>
+          <t xml:space="preserve">        5</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1332,12 +1332,12 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11</t>
+          <t xml:space="preserve">  10</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> chirag@kali</t>
+          <t xml:space="preserve"> Riya's S24</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1349,22 +1349,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>D4:BD:4F:53:83:D8</t>
+          <t>70:47:77:9A:FB:D8</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:21</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:33</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11</t>
+          <t xml:space="preserve">  1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1389,12 +1389,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -68</t>
+          <t xml:space="preserve"> -78</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t xml:space="preserve">        9</t>
+          <t xml:space="preserve">        5</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1409,12 +1409,12 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  17</t>
+          <t xml:space="preserve">  11</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New Boys Hostel 1</t>
+          <t xml:space="preserve"> Guest Users</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1426,27 +1426,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>82:E9:3A:2D:60:35</t>
+          <t>46:94:2E:46:EF:B9</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:21</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:33</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:01</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11</t>
+          <t xml:space="preserve">  1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  65</t>
+          <t xml:space="preserve"> 180</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -81</t>
+          <t xml:space="preserve"> -82</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t xml:space="preserve">        0</t>
+          <t xml:space="preserve">        2</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1486,12 +1486,12 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  20</t>
+          <t xml:space="preserve">   4</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESKTOP-DUVJAQ3 7692</t>
+          <t xml:space="preserve"> Mmmm</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1503,17 +1503,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>90:3A:72:0D:0B:88</t>
+          <t>44:1E:98:E0:53:C8</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:21</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:34</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1543,12 +1543,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -75</t>
+          <t xml:space="preserve"> -82</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t xml:space="preserve">        5</t>
+          <t xml:space="preserve">        1</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1563,12 +1563,12 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t xml:space="preserve">   6</t>
+          <t xml:space="preserve">   7</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SBCOAD</t>
+          <t xml:space="preserve"> SBCOAD2</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1580,17 +1580,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>90:3A:72:4D:0B:88</t>
+          <t>70:47:77:DA:FB:D8</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:21</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:36</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 130</t>
+          <t xml:space="preserve"> 360</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1620,12 +1620,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -75</t>
+          <t xml:space="preserve"> -79</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t xml:space="preserve">        7</t>
+          <t xml:space="preserve">        4</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1640,12 +1640,12 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  10</t>
+          <t xml:space="preserve">  12</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET STAFF</t>
+          <t xml:space="preserve"> PCET Student</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1657,17 +1657,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>90:3A:72:8D:0B:88</t>
+          <t>70:47:77:1A:FB:D8</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:21</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:34</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 130</t>
+          <t xml:space="preserve"> 360</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1697,12 +1697,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -75</t>
+          <t xml:space="preserve"> -81</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t xml:space="preserve">        7</t>
+          <t xml:space="preserve">        5</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t xml:space="preserve">   7</t>
+          <t xml:space="preserve">  11</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SBCOAD1</t>
+          <t xml:space="preserve"> PCCoE Staff</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1734,17 +1734,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>96:96:C0:94:02:C4</t>
+          <t>36:61:5E:56:A5:6E</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:21</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:23</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:01</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1774,17 +1774,17 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -76</t>
+          <t xml:space="preserve"> -38</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1</t>
+          <t xml:space="preserve">        8</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t xml:space="preserve">        2</t>
+          <t xml:space="preserve">        0</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1794,12 +1794,12 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t xml:space="preserve">  14</t>
+          <t xml:space="preserve">  11</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Redmi Note 10S</t>
+          <t xml:space="preserve"> iQOO Z7s 5G</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1811,17 +1811,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>70:47:77:1B:96:38</t>
+          <t>06:C8:79:E4:09:C4</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:21</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:34</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:55</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1831,12 +1831,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 360</t>
+          <t xml:space="preserve">  -1</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPN</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1851,12 +1851,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -78</t>
+          <t xml:space="preserve">  -1</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t xml:space="preserve">        7</t>
+          <t xml:space="preserve">        0</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1871,12 +1871,12 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11</t>
+          <t xml:space="preserve">   0</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCCoE Staff</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1888,27 +1888,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>70:47:77:5B:96:38</t>
+          <t>90:3A:72:0D:0B:88</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:21</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:34</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1</t>
+          <t xml:space="preserve">  6</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 360</t>
+          <t xml:space="preserve"> 130</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1928,12 +1928,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -78</t>
+          <t xml:space="preserve"> -81</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t xml:space="preserve">        8</t>
+          <t xml:space="preserve">       12</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1948,12 +1948,12 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11</t>
+          <t xml:space="preserve">   6</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Guest Users</t>
+          <t xml:space="preserve"> SBCOAD</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1965,22 +1965,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>70:47:77:9B:96:38</t>
+          <t>D4:BD:4F:13:83:D9</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:21</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:36</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1</t>
+          <t xml:space="preserve">  6</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2005,32 +2005,32 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -80</t>
+          <t xml:space="preserve"> -81</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t xml:space="preserve">        7</t>
+          <t xml:space="preserve">        6</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t xml:space="preserve">        0</t>
+          <t xml:space="preserve">       13</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.  0.  0.  0</t>
+          <t xml:space="preserve">  10. 90.  2. 42</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12</t>
+          <t xml:space="preserve">  14</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Student</t>
+          <t xml:space="preserve"> Girls Hostel 2</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -2042,17 +2042,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CA:8A:9A:FF:72:2E</t>
+          <t>D4:BD:4F:D3:83:D8</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:22</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:35</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:59</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2062,32 +2062,32 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 130</t>
+          <t xml:space="preserve"> 360</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WPA2</t>
+          <t xml:space="preserve"> OPN</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CCMP</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSK</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -70</t>
+          <t xml:space="preserve"> -82</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t xml:space="preserve">       19</t>
+          <t xml:space="preserve">        4</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2102,12 +2102,12 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12</t>
+          <t xml:space="preserve">  14</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PHOENIX 1726</t>
+          <t xml:space="preserve"> Girls Hostel 1</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2119,57 +2119,57 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>EA:41:F4:3B:3B:93</t>
+          <t>D4:BD:4F:D3:83:D9</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:22</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:33</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:59</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11</t>
+          <t xml:space="preserve">  6</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 130</t>
+          <t xml:space="preserve"> 360</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WPA2</t>
+          <t xml:space="preserve"> OPN</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CCMP</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSK</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -47</t>
+          <t xml:space="preserve"> -80</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t xml:space="preserve">        6</t>
+          <t xml:space="preserve">        8</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t xml:space="preserve">        4</t>
+          <t xml:space="preserve">        0</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2179,12 +2179,12 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12</t>
+          <t xml:space="preserve">  17</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DESKTOP MIM2</t>
+          <t xml:space="preserve"> New Boys Hostel 5</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2196,17 +2196,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>8C:0C:90:BC:38:51</t>
+          <t>34:68:95:19:53:A6</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:22</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:34</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2216,7 +2216,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 130</t>
+          <t xml:space="preserve">  65</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2236,12 +2236,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -79</t>
+          <t xml:space="preserve"> -38</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t xml:space="preserve">        5</t>
+          <t xml:space="preserve">       32</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13</t>
+          <t xml:space="preserve">  28</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi 20</t>
+          <t xml:space="preserve"> HP-Print-A6-LaserJet Pro MFP</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2273,17 +2273,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>AE:4B:56:51:54:3A</t>
+          <t>90:3A:72:4D:0B:88</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:22</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:35</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2298,27 +2298,27 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WPA3 WPA2</t>
+          <t xml:space="preserve"> OPN</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CCMP</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SAE PSK</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -76</t>
+          <t xml:space="preserve"> -79</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t xml:space="preserve">        3</t>
+          <t xml:space="preserve">       11</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2333,12 +2333,12 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t xml:space="preserve">  14</t>
+          <t xml:space="preserve">  10</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Iphone 15 Plus</t>
+          <t xml:space="preserve"> PCET STAFF</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2350,32 +2350,32 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>FE:F5:CB:12:C9:22</t>
+          <t>D4:BD:4F:93:83:D8</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:22</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:26</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  7</t>
+          <t xml:space="preserve">  6</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  -1</t>
+          <t xml:space="preserve"> 360</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> OPN</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2390,12 +2390,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  -1</t>
+          <t xml:space="preserve"> -83</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t xml:space="preserve">        0</t>
+          <t xml:space="preserve">        5</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2410,12 +2410,12 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0</t>
+          <t xml:space="preserve">  17</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> New Boys Hostel 3</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2427,17 +2427,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>90:3A:72:0D:0C:68</t>
+          <t>D4:BD:4F:13:83:DA</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:22</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:34</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:59</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 130</t>
+          <t xml:space="preserve"> 360</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2467,32 +2467,32 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -69</t>
+          <t xml:space="preserve"> -80</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t xml:space="preserve">        4</t>
+          <t xml:space="preserve">        7</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t xml:space="preserve">        2</t>
+          <t xml:space="preserve">        0</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  10. 90.  2.199</t>
+          <t xml:space="preserve">   0.  0.  0.  0</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t xml:space="preserve">   6</t>
+          <t xml:space="preserve">  17</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SBCOAD</t>
+          <t xml:space="preserve"> New Boys Hostel 6</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2504,17 +2504,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>90:3A:72:4D:0C:68</t>
+          <t>D4:BD:4F:93:83:DA</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:22</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:34</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:59</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2524,7 +2524,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 130</t>
+          <t xml:space="preserve"> 360</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2544,12 +2544,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -72</t>
+          <t xml:space="preserve"> -81</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t xml:space="preserve">        4</t>
+          <t xml:space="preserve">        6</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2564,12 +2564,12 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t xml:space="preserve">  10</t>
+          <t xml:space="preserve">  12</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET STAFF</t>
+          <t xml:space="preserve"> PCET Student</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2581,17 +2581,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5E:9B:73:75:B5:34</t>
+          <t>D4:BD:4F:93:83:D9</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:22</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:35</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:59</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2601,32 +2601,32 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 130</t>
+          <t xml:space="preserve"> 360</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WPA3 WPA2</t>
+          <t xml:space="preserve"> OPN</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CCMP</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SAE PSK</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -72</t>
+          <t xml:space="preserve"> -79</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t xml:space="preserve">       18</t>
+          <t xml:space="preserve">        6</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2641,12 +2641,12 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t xml:space="preserve">  16</t>
+          <t xml:space="preserve">  14</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Le re bhikhmange</t>
+          <t xml:space="preserve"> Girls Hostel 3</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2658,72 +2658,72 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>8C:0C:90:FC:38:51</t>
+          <t>CE:4F:53:03:EC:13</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:22</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:35</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6</t>
+          <t xml:space="preserve">  1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 130</t>
+          <t xml:space="preserve"> 360</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPN</t>
+          <t xml:space="preserve"> WPA3 WPA2</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> CCMP</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t xml:space="preserve"> SAE PSK</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -79</t>
+          <t xml:space="preserve"> -53</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t xml:space="preserve">        8</t>
+          <t xml:space="preserve">       22</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t xml:space="preserve">       26</t>
+          <t xml:space="preserve">        0</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  10. 90.  1.247</t>
+          <t xml:space="preserve">   0.  0.  0.  0</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13</t>
+          <t xml:space="preserve">  12</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi 21</t>
+          <t xml:space="preserve"> Shivam Niwas</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2735,17 +2735,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>8C:0C:90:3C:38:51</t>
+          <t>D4:BD:4F:53:83:D8</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:22</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:34</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:59</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2755,7 +2755,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 130</t>
+          <t xml:space="preserve"> 360</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2775,12 +2775,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -73</t>
+          <t xml:space="preserve"> -81</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t xml:space="preserve">        8</t>
+          <t xml:space="preserve">        3</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2795,12 +2795,12 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12</t>
+          <t xml:space="preserve">  17</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi 2</t>
+          <t xml:space="preserve"> New Boys Hostel 2</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2812,17 +2812,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>90:3A:72:8D:0C:68</t>
+          <t>90:3A:72:CD:0B:88</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:22</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:34</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2852,12 +2852,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -70</t>
+          <t xml:space="preserve"> -80</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t xml:space="preserve">        4</t>
+          <t xml:space="preserve">        9</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2877,7 +2877,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SBCOAD1</t>
+          <t xml:space="preserve"> SBCOAD2</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2889,17 +2889,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>8C:0C:90:3C:38:59</t>
+          <t>D4:BD:4F:13:83:D8</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:22</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:34</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:59</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 130</t>
+          <t xml:space="preserve"> 360</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2929,12 +2929,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -74</t>
+          <t xml:space="preserve"> -79</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t xml:space="preserve">        6</t>
+          <t xml:space="preserve">        2</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2949,12 +2949,12 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12</t>
+          <t xml:space="preserve">  17</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi 9</t>
+          <t xml:space="preserve"> New Boys Hostel 1</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2966,42 +2966,42 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0A:A0:23:D1:89:5F</t>
+          <t>D4:BD:4F:53:83:D9</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:22</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:34</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1</t>
+          <t xml:space="preserve">  6</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 180</t>
+          <t xml:space="preserve"> 360</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WPA2</t>
+          <t xml:space="preserve"> OPN</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CCMP</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSK</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t xml:space="preserve">        7</t>
+          <t xml:space="preserve">        6</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3026,12 +3026,12 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t xml:space="preserve">   7</t>
+          <t xml:space="preserve">  17</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WiFi 34</t>
+          <t xml:space="preserve"> New Boys Hostel 4</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -3043,52 +3043,52 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>E6:7D:7D:8D:A2:3F</t>
+          <t>D4:BD:4F:53:83:DA</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:23</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:34</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1</t>
+          <t xml:space="preserve">  6</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  65</t>
+          <t xml:space="preserve"> 360</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WPA2</t>
+          <t xml:space="preserve"> OPN</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CCMP</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSK</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -85</t>
+          <t xml:space="preserve"> -81</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t xml:space="preserve">        4</t>
+          <t xml:space="preserve">        9</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3103,12 +3103,12 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t xml:space="preserve">   4</t>
+          <t xml:space="preserve">  14</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S 13</t>
+          <t xml:space="preserve"> Girls Hostel 4</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -3120,32 +3120,32 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>D8:38:FC:67:91:98</t>
+          <t>DE:07:B6:D8:2B:26</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:23</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:51</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:30</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:01</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3</t>
+          <t xml:space="preserve">  2</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 270</t>
+          <t xml:space="preserve"> 195</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WPA2 WPA</t>
+          <t xml:space="preserve"> WPA2</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -3160,12 +3160,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -84</t>
+          <t xml:space="preserve"> -75</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t xml:space="preserve">        4</t>
+          <t xml:space="preserve">        6</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3197,57 +3197,57 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>D8:38:FC:27:91:98</t>
+          <t>8C:90:2D:C9:23:1D</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:23</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:51</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:30</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:51</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3</t>
+          <t xml:space="preserve">  2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 270</t>
+          <t xml:space="preserve">  -1</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WPA2 WPA</t>
+          <t xml:space="preserve"> WPA</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CCMP</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSK</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -84</t>
+          <t xml:space="preserve">  -1</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t xml:space="preserve">        5</t>
+          <t xml:space="preserve">        0</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t xml:space="preserve">        0</t>
+          <t xml:space="preserve">       16</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3257,12 +3257,12 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t xml:space="preserve">   3</t>
+          <t xml:space="preserve">   0</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> T&amp;P</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3274,27 +3274,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>D8:38:FC:67:91:93</t>
+          <t>E8:48:B8:5A:6C:E2</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:24</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:51</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:30</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:01</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3</t>
+          <t xml:space="preserve">  2</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 270</t>
+          <t xml:space="preserve"> 195</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3314,12 +3314,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -85</t>
+          <t xml:space="preserve"> -84</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t xml:space="preserve">        2</t>
+          <t xml:space="preserve">        5</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3334,12 +3334,12 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13</t>
+          <t xml:space="preserve">   5</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> island-279190</t>
+          <t xml:space="preserve"> Oppo9</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3351,42 +3351,42 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>8C:0C:90:7C:38:52</t>
+          <t>D8:07:B6:D8:2B:26</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:25</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:51</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:35</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:57</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6</t>
+          <t xml:space="preserve">  2</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 130</t>
+          <t xml:space="preserve"> 195</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPN</t>
+          <t xml:space="preserve"> WPA2</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> CCMP TKIP</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t xml:space="preserve"> PSK</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3396,27 +3396,27 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t xml:space="preserve">        7</t>
+          <t xml:space="preserve">        2</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t xml:space="preserve">        5</t>
+          <t xml:space="preserve">        0</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  10. 90.  2.199</t>
+          <t xml:space="preserve">   0.  0.  0.  0</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13</t>
+          <t xml:space="preserve">  12</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi 23</t>
+          <t xml:space="preserve"> TP-Link_2B26</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3428,52 +3428,52 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>D4:BD:4F:D3:83:D9</t>
+          <t>FA:48:B8:5A:6C:E2</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:25</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:51</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:33</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:56</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11</t>
+          <t xml:space="preserve">  2</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 360</t>
+          <t xml:space="preserve"> 195</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPN</t>
+          <t xml:space="preserve"> WPA2</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> CCMP</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t xml:space="preserve"> PSK</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -65</t>
+          <t xml:space="preserve"> -79</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t xml:space="preserve">        2</t>
+          <t xml:space="preserve">        4</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3488,12 +3488,12 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11</t>
+          <t xml:space="preserve">   0</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCCoE Staff</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3505,52 +3505,52 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>D4:BD:4F:13:83:DA</t>
+          <t>F8:C4:F3:86:C8:71</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:25</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:51</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:33</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11</t>
+          <t xml:space="preserve">  9</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 360</t>
+          <t xml:space="preserve"> 130</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPN</t>
+          <t xml:space="preserve"> WPA2</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> CCMP TKIP</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t xml:space="preserve"> PSK</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -68</t>
+          <t xml:space="preserve"> -40</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t xml:space="preserve">        4</t>
+          <t xml:space="preserve">       36</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3565,12 +3565,12 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t xml:space="preserve">  17</t>
+          <t xml:space="preserve">  12</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New Boys Hostel 4</t>
+          <t xml:space="preserve"> ShieldSphere</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3582,22 +3582,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>D4:BD:4F:53:83:D9</t>
+          <t>F2:A7:31:2A:71:29</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:25</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:51</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:25</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:56</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11</t>
+          <t xml:space="preserve">  8</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3607,27 +3607,27 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPN</t>
+          <t xml:space="preserve"> WPA2</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> CCMP</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t xml:space="preserve"> PSK</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -71</t>
+          <t xml:space="preserve"> -87</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1</t>
+          <t xml:space="preserve">        3</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3642,12 +3642,12 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t xml:space="preserve">  14</t>
+          <t xml:space="preserve">   0</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Girls Hostel 1</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3659,52 +3659,52 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>44:1E:98:20:53:C8</t>
+          <t>F0:A7:31:EA:71:29</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:25</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:51</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:25</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:51</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11</t>
+          <t xml:space="preserve">  8</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 130</t>
+          <t xml:space="preserve"> 360</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPN</t>
+          <t xml:space="preserve"> WPA2</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> CCMP</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t xml:space="preserve"> PSK</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -68</t>
+          <t xml:space="preserve"> -86</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t xml:space="preserve">        0</t>
+          <t xml:space="preserve">        1</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3719,12 +3719,12 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t xml:space="preserve">   6</t>
+          <t xml:space="preserve">  13</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SBCOAD</t>
+          <t xml:space="preserve"> VinayPatil_4G</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3736,22 +3736,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>44:1E:98:60:53:C8</t>
+          <t>8C:0C:90:BC:38:58</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:25</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:52</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:25</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:03</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11</t>
+          <t xml:space="preserve"> 10</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3776,12 +3776,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -68</t>
+          <t xml:space="preserve"> -73</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t xml:space="preserve">        0</t>
+          <t xml:space="preserve">        9</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3796,12 +3796,12 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t xml:space="preserve">  10</t>
+          <t xml:space="preserve">  12</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET STAFF</t>
+          <t xml:space="preserve"> PCET Wi-Fi 7</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3813,22 +3813,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>44:1E:98:A0:53:C8</t>
+          <t>8C:0C:90:3C:38:59</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:25</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:52</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:33</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11</t>
+          <t xml:space="preserve"> 10</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3853,12 +3853,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -67</t>
+          <t xml:space="preserve"> -72</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1</t>
+          <t xml:space="preserve">       12</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3873,12 +3873,12 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t xml:space="preserve">   7</t>
+          <t xml:space="preserve">  12</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SBCOAD1</t>
+          <t xml:space="preserve"> PCET Wi-Fi 9</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3890,22 +3890,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>8C:0C:90:FC:38:59</t>
+          <t>8C:0C:90:7C:38:59</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:26</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:52</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:35</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6</t>
+          <t xml:space="preserve"> 10</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3930,12 +3930,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -76</t>
+          <t xml:space="preserve"> -70</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t xml:space="preserve">        5</t>
+          <t xml:space="preserve">       12</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3955,7 +3955,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi 12</t>
+          <t xml:space="preserve"> PCET Wi-Fi 11</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3967,32 +3967,32 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0A:75:89:C6:C9:1D</t>
+          <t>8C:0C:90:BC:38:59</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:26</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:52</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:26</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">  5</t>
+          <t xml:space="preserve"> 10</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve">  -1</t>
+          <t xml:space="preserve"> 130</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> OPN</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -4007,12 +4007,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t xml:space="preserve">  -1</t>
+          <t xml:space="preserve"> -79</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t xml:space="preserve">        0</t>
+          <t xml:space="preserve">        9</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4027,12 +4027,12 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0</t>
+          <t xml:space="preserve">  13</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> PCET Wi-Fi 10</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -4044,52 +4044,52 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>82:6B:A1:77:C2:DD</t>
+          <t>8C:0C:90:FC:38:59</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:26</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:52</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:26</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11</t>
+          <t xml:space="preserve"> 10</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 360</t>
+          <t xml:space="preserve"> 130</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WPA2</t>
+          <t xml:space="preserve"> OPN</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CCMP</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSK</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -84</t>
+          <t xml:space="preserve"> -71</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t xml:space="preserve">        0</t>
+          <t xml:space="preserve">        8</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4104,12 +4104,12 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t xml:space="preserve">  18</t>
+          <t xml:space="preserve">  13</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Galaxy S23 FE 54D0</t>
+          <t xml:space="preserve"> PCET Wi-Fi 12</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -4121,22 +4121,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>70:47:77:5A:D7:70</t>
+          <t>8C:0C:90:FC:38:51</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:26</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:52</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:26</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:03</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11</t>
+          <t xml:space="preserve"> 10</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -4146,27 +4146,27 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WPA3 WPA2</t>
+          <t xml:space="preserve"> OPN</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CCMP</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SAE PSK</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -81</t>
+          <t xml:space="preserve"> -73</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t xml:space="preserve">        0</t>
+          <t xml:space="preserve">        8</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -4181,12 +4181,12 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t xml:space="preserve">  14</t>
+          <t xml:space="preserve">  13</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EnTC 5th Floor</t>
+          <t xml:space="preserve"> PCET Wi-Fi 22</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -4198,32 +4198,32 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A2:EE:34:BD:C7:1D</t>
+          <t>8C:0C:90:3C:38:5B</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:27</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:52</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:27</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:03</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11</t>
+          <t xml:space="preserve"> 10</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve">  -1</t>
+          <t xml:space="preserve"> 130</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> OPN</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -4238,12 +4238,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t xml:space="preserve">  -1</t>
+          <t xml:space="preserve"> -77</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t xml:space="preserve">        0</t>
+          <t xml:space="preserve">        6</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4258,12 +4258,12 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0</t>
+          <t xml:space="preserve">  13</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> PCET Wi-Fi 16</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -4275,22 +4275,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>8C:0C:90:3C:38:58</t>
+          <t>8C:0C:90:7C:38:58</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:27</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:52</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:35</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6</t>
+          <t xml:space="preserve"> 10</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -4315,12 +4315,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -83</t>
+          <t xml:space="preserve"> -72</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t xml:space="preserve">        6</t>
+          <t xml:space="preserve">        9</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4340,7 +4340,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi 5</t>
+          <t xml:space="preserve"> PCET Wi-Fi 6</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4352,22 +4352,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>8C:0C:90:7C:38:58</t>
+          <t>8C:0C:90:3C:38:5A</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:27</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:52</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:35</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:03</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6</t>
+          <t xml:space="preserve"> 10</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -4392,12 +4392,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -84</t>
+          <t xml:space="preserve"> -73</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t xml:space="preserve">        8</t>
+          <t xml:space="preserve">        7</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi 6</t>
+          <t xml:space="preserve"> PCET Wi-Fi 4</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4429,22 +4429,22 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>8C:0C:90:7C:38:5A</t>
+          <t>8C:0C:90:7C:38:5B</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:27</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:52</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:35</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:03</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6</t>
+          <t xml:space="preserve"> 10</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -4469,22 +4469,22 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -76</t>
+          <t xml:space="preserve"> -78</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t xml:space="preserve">        7</t>
+          <t xml:space="preserve">        9</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t xml:space="preserve">       34</t>
+          <t xml:space="preserve">        0</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t xml:space="preserve">  10. 90.  2.202</t>
+          <t xml:space="preserve">   0.  0.  0.  0</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -4494,7 +4494,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi 13</t>
+          <t xml:space="preserve"> PCET Wi-Fi 17</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4506,57 +4506,57 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>8C:0C:90:7C:38:51</t>
+          <t>7A:20:51:17:8F:5A</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:27</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:53</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:35</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:58</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6</t>
+          <t xml:space="preserve"> 10</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 130</t>
+          <t xml:space="preserve"> 360</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPN</t>
+          <t xml:space="preserve"> WPA3 WPA2</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> CCMP</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t xml:space="preserve"> SAE PSK</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -81</t>
+          <t xml:space="preserve"> -85</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t xml:space="preserve">        8</t>
+          <t xml:space="preserve">        1</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t xml:space="preserve">        0</t>
+          <t xml:space="preserve">        1</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4566,12 +4566,12 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12</t>
+          <t xml:space="preserve">  16</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi 3</t>
+          <t xml:space="preserve"> Joglekar_AP_2.4G</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4583,22 +4583,22 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>8C:0C:90:FC:38:5A</t>
+          <t>8C:0C:90:3C:38:52</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:27</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:53</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:35</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6</t>
+          <t xml:space="preserve"> 10</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4623,7 +4623,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -76</t>
+          <t xml:space="preserve"> -85</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t xml:space="preserve">        0</t>
+          <t xml:space="preserve">       55</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi 15</t>
+          <t xml:space="preserve"> PCET Wi-Fi 23</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4660,22 +4660,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>8C:0C:90:FC:38:50</t>
+          <t>70:9C:D1:87:99:C5</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:27</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:53</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:35</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6</t>
+          <t xml:space="preserve"> 11</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -4685,27 +4685,27 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPN</t>
+          <t xml:space="preserve"> WPA3 WPA2</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> CCMP</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t xml:space="preserve"> SAE CMAC PSK</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -77</t>
+          <t xml:space="preserve"> -43</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t xml:space="preserve">        4</t>
+          <t xml:space="preserve">        8</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4725,7 +4725,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Guest Users</t>
+          <t xml:space="preserve"> chirag@kali</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4742,17 +4742,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:27</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:53</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:33</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:59</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6</t>
+          <t xml:space="preserve"> 10</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -4777,12 +4777,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -79</t>
+          <t xml:space="preserve"> -72</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t xml:space="preserve">        2</t>
+          <t xml:space="preserve">        4</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4797,12 +4797,12 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12</t>
+          <t xml:space="preserve">  11</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi 1</t>
+          <t xml:space="preserve"> Guest Users</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4814,72 +4814,72 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>8C:0C:90:7C:38:5B</t>
+          <t>78:20:51:A7:8F:5A</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:27</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:53</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:33</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:53</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6</t>
+          <t xml:space="preserve"> 10</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 130</t>
+          <t xml:space="preserve"> 360</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPN</t>
+          <t xml:space="preserve"> WPA2</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> CCMP</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t xml:space="preserve"> PSK</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -82</t>
+          <t xml:space="preserve"> -88</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t xml:space="preserve">        2</t>
+          <t xml:space="preserve">        1</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t xml:space="preserve">        5</t>
+          <t xml:space="preserve">        0</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t xml:space="preserve">  10. 90.  2. 51</t>
+          <t xml:space="preserve">   0.  0.  0.  0</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13</t>
+          <t xml:space="preserve">  11</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi 17</t>
+          <t xml:space="preserve"> Joglekar_AP</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4891,22 +4891,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>8C:0C:90:7C:38:50</t>
+          <t>8C:0C:90:FC:38:58</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:27</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:53</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:35</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6</t>
+          <t xml:space="preserve"> 10</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4931,12 +4931,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -77</t>
+          <t xml:space="preserve"> -71</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t xml:space="preserve">        5</t>
+          <t xml:space="preserve">        8</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4951,12 +4951,12 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t xml:space="preserve">  10</t>
+          <t xml:space="preserve">  12</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi</t>
+          <t xml:space="preserve"> PCET Wi-Fi 8</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4968,32 +4968,32 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>8C:0C:90:BC:38:5B</t>
+          <t>54:A2:45:13:C3:51</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:27</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:53</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:34</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6</t>
+          <t xml:space="preserve">  5</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 130</t>
+          <t xml:space="preserve">  -1</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPN</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -5008,12 +5008,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -74</t>
+          <t xml:space="preserve">  -1</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t xml:space="preserve">        4</t>
+          <t xml:space="preserve">        0</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5028,12 +5028,12 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13</t>
+          <t xml:space="preserve">   0</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi 18</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -5045,52 +5045,52 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>8C:0C:90:3C:38:50</t>
+          <t>FA:FE:D4:5C:95:6B</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:27</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:54</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:35</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6</t>
+          <t xml:space="preserve"> 11</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 130</t>
+          <t xml:space="preserve"> 180</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPN</t>
+          <t xml:space="preserve"> WPA3 WPA2</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> CCMP</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t xml:space="preserve"> SAE PSK</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -74</t>
+          <t xml:space="preserve"> -79</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t xml:space="preserve">        2</t>
+          <t xml:space="preserve">        3</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5105,12 +5105,12 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13</t>
+          <t xml:space="preserve">  29</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi 19</t>
+          <t xml:space="preserve"> OnePlus Nord CE4 Lite 5G 91a5</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -5122,17 +5122,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>D2:C2:E8:20:EE:2F</t>
+          <t>96:D4:D0:FD:08:43</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:27</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:54</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:34</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:59</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -5142,7 +5142,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 180</t>
+          <t xml:space="preserve"> 360</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -5162,7 +5162,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -71</t>
+          <t xml:space="preserve"> -89</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -5182,12 +5182,12 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t xml:space="preserve">   9</t>
+          <t xml:space="preserve">  10</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AMEY 5498</t>
+          <t xml:space="preserve"> DK's Phone</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -5199,17 +5199,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>8C:0C:90:3C:38:52</t>
+          <t>0E:8D:29:FF:75:E2</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:27</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:54</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:35</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:00</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -5219,52 +5219,52 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 130</t>
+          <t xml:space="preserve"> 360</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPN</t>
+          <t xml:space="preserve"> WPA2</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> CCMP</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t xml:space="preserve"> PSK</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -75</t>
+          <t xml:space="preserve"> -84</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t xml:space="preserve">        8</t>
+          <t xml:space="preserve">        4</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t xml:space="preserve">       13</t>
+          <t xml:space="preserve">        0</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t xml:space="preserve">  10. 90.  3. 59</t>
+          <t xml:space="preserve">   0.  0.  0.  0</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13</t>
+          <t xml:space="preserve">  12</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi 22</t>
+          <t xml:space="preserve"> Artic Circle</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -5276,17 +5276,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>8C:0C:90:BC:38:58</t>
+          <t>0C:D2:B5:50:05:16</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:27</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:54</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:35</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:00</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -5296,32 +5296,32 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 130</t>
+          <t xml:space="preserve"> 135</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPN</t>
+          <t xml:space="preserve"> WPA2</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> CCMP</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t xml:space="preserve"> PSK</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -85</t>
+          <t xml:space="preserve"> -88</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t xml:space="preserve">        7</t>
+          <t xml:space="preserve">        6</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5336,12 +5336,12 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12</t>
+          <t xml:space="preserve">   9</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi 7</t>
+          <t xml:space="preserve"> MK Behara</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -5353,17 +5353,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>8C:0C:90:FC:38:58</t>
+          <t>90:3A:72:8D:0B:88</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:27</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:54</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:35</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:00</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -5393,12 +5393,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -83</t>
+          <t xml:space="preserve"> -81</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t xml:space="preserve">        7</t>
+          <t xml:space="preserve">        8</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5413,12 +5413,12 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12</t>
+          <t xml:space="preserve">   7</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi 8</t>
+          <t xml:space="preserve"> SBCOAD1</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5430,17 +5430,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>8C:0C:90:3C:38:5A</t>
+          <t>12:6A:B9:D6:D6:CD</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:27</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:54</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:35</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:00</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -5450,32 +5450,32 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 130</t>
+          <t xml:space="preserve">  65</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPN</t>
+          <t xml:space="preserve"> WPA2</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> CCMP</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t xml:space="preserve"> PSK</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -75</t>
+          <t xml:space="preserve"> -92</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t xml:space="preserve">        5</t>
+          <t xml:space="preserve">        4</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5490,12 +5490,12 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12</t>
+          <t xml:space="preserve">  14</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi 4</t>
+          <t xml:space="preserve"> Galaxy M01fbf1</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -5507,17 +5507,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>8C:0C:90:7C:38:59</t>
+          <t>6A:34:21:AA:31:EC</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:27</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:54</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:35</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:00</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -5532,27 +5532,27 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPN</t>
+          <t xml:space="preserve"> WPA2</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> CCMP</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t xml:space="preserve"> PSK</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -82</t>
+          <t xml:space="preserve"> -65</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t xml:space="preserve">        7</t>
+          <t xml:space="preserve">        8</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5567,12 +5567,12 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13</t>
+          <t xml:space="preserve">  28</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi 11</t>
+          <t xml:space="preserve"> DIRECT-JPSES83241175IP10msDN</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5584,32 +5584,32 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>8C:0C:90:BC:38:5A</t>
+          <t>00:25:00:FF:94:73</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:27</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:55</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:34</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:55</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6</t>
+          <t xml:space="preserve"> -1</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 130</t>
+          <t xml:space="preserve">  -1</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPN</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -5624,12 +5624,12 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -72</t>
+          <t xml:space="preserve">  -1</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t xml:space="preserve">        6</t>
+          <t xml:space="preserve">        0</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -5644,12 +5644,12 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13</t>
+          <t xml:space="preserve">   0</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi 14</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5661,27 +5661,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>8C:0C:90:FC:38:5B</t>
+          <t>70:47:77:5A:FB:D8</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:28</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:55</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:34</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:00</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6</t>
+          <t xml:space="preserve">  1</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 130</t>
+          <t xml:space="preserve"> 360</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5701,12 +5701,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -73</t>
+          <t xml:space="preserve"> -80</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t xml:space="preserve">        4</t>
+          <t xml:space="preserve">        6</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5721,12 +5721,12 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t xml:space="preserve">  10</t>
+          <t xml:space="preserve">  13</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Staff</t>
+          <t xml:space="preserve"> PCCoE Staff 1</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5738,52 +5738,52 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>8C:0C:90:3C:38:5B</t>
+          <t>DA:47:E4:99:EF:8D</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:29</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:55</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:33</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:00</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6</t>
+          <t xml:space="preserve">  1</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 130</t>
+          <t xml:space="preserve"> 180</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPN</t>
+          <t xml:space="preserve"> WPA2</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> CCMP</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t xml:space="preserve"> PSK</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -74</t>
+          <t xml:space="preserve"> -86</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t xml:space="preserve">        2</t>
+          <t xml:space="preserve">        3</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5798,12 +5798,12 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13</t>
+          <t xml:space="preserve">   4</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi 16</t>
+          <t xml:space="preserve"> Home</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5815,32 +5815,32 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>E8:48:B8:5A:6C:E2</t>
+          <t>70:47:77:5A:D7:70</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:29</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:55</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:35</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:00</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2</t>
+          <t xml:space="preserve">  1</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 195</t>
+          <t xml:space="preserve"> 130</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WPA2</t>
+          <t xml:space="preserve"> WPA3 WPA2</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -5850,12 +5850,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSK</t>
+          <t xml:space="preserve"> SAE PSK</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -89</t>
+          <t xml:space="preserve"> -81</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -5875,12 +5875,12 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t xml:space="preserve">   5</t>
+          <t xml:space="preserve">  14</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Oppo9</t>
+          <t xml:space="preserve"> EnTC 5th Floor</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5892,27 +5892,27 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>FA:48:B8:5A:6C:E2</t>
+          <t>D8:07:B6:8B:76:C4</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:29</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:55</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:29</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:55</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2</t>
+          <t xml:space="preserve">  1</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 195</t>
+          <t xml:space="preserve"> 270</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5952,12 +5952,12 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0</t>
+          <t xml:space="preserve">  12</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Priti Rajput</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5969,52 +5969,52 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>D4:BD:4F:93:83:D9</t>
+          <t>3E:0D:95:10:F2:C4</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:33</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:56</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:33</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:59</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11</t>
+          <t xml:space="preserve">  6</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 360</t>
+          <t xml:space="preserve"> 180</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPN</t>
+          <t xml:space="preserve"> WPA2</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> CCMP</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t xml:space="preserve"> PSK</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -64</t>
+          <t xml:space="preserve"> -85</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1</t>
+          <t xml:space="preserve">        3</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -6029,12 +6029,12 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t xml:space="preserve">  14</t>
+          <t xml:space="preserve">   9</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Girls Hostel 2</t>
+          <t xml:space="preserve"> vivo V29e</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -6046,57 +6046,57 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>46:5B:18:02:0C:39</t>
+          <t>98:9D:B2:4D:21:8F</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:33</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:56</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:33</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:56</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11</t>
+          <t xml:space="preserve">  7</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t xml:space="preserve">  -1</t>
+          <t xml:space="preserve"> 270</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPN</t>
+          <t xml:space="preserve"> WPA2</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> CCMP TKIP</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t xml:space="preserve"> PSK</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t xml:space="preserve">  -1</t>
+          <t xml:space="preserve"> -87</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t xml:space="preserve">        0</t>
+          <t xml:space="preserve">        2</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t xml:space="preserve">        2</t>
+          <t xml:space="preserve">        0</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -6106,12 +6106,12 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0</t>
+          <t xml:space="preserve">   8</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> MEERA 2G</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -6123,32 +6123,32 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>22:BE:06:DA:D3:DB</t>
+          <t>8C:0C:90:3C:38:51</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:33</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:57</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:33</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:59</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11</t>
+          <t xml:space="preserve"> 10</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t xml:space="preserve">  -1</t>
+          <t xml:space="preserve"> 130</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> OPN</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -6163,12 +6163,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t xml:space="preserve">  -1</t>
+          <t xml:space="preserve"> -73</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t xml:space="preserve">        0</t>
+          <t xml:space="preserve">        1</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6183,12 +6183,12 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0</t>
+          <t xml:space="preserve">  12</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> PCET Wi-Fi 3</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -6200,52 +6200,52 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>66:01:83:CD:DF:0A</t>
+          <t>8C:0C:90:FC:38:50</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:33</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:57</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:33</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:03</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 11</t>
+          <t xml:space="preserve"> 10</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 180</t>
+          <t xml:space="preserve"> 130</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WPA3 WPA2</t>
+          <t xml:space="preserve"> OPN</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CCMP</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SAE PSK</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -88</t>
+          <t xml:space="preserve"> -74</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1</t>
+          <t xml:space="preserve">        2</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -6260,12 +6260,12 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t xml:space="preserve">   6</t>
+          <t xml:space="preserve">  12</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lokesh</t>
+          <t xml:space="preserve"> PCET Wi-Fi 2</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -6277,22 +6277,22 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>8C:0C:90:BC:38:59</t>
+          <t>00:17:7C:AD:C3:C3</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:33</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:58</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:35</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:58</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6</t>
+          <t xml:space="preserve">  4</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -6302,27 +6302,27 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPN</t>
+          <t xml:space="preserve"> WPA2</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> CCMP TKIP</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t xml:space="preserve"> PSK</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -74</t>
+          <t xml:space="preserve"> -91</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t xml:space="preserve">        4</t>
+          <t xml:space="preserve">        1</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -6337,12 +6337,12 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13</t>
+          <t xml:space="preserve">  14</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi 10</t>
+          <t xml:space="preserve"> aditya_biradar</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -6354,52 +6354,52 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>D6:54:60:6B:CC:D2</t>
+          <t>D8:07:B6:3D:50:BF</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:35</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:58</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:35</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:58</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t xml:space="preserve">  7</t>
+          <t xml:space="preserve"> 10</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t xml:space="preserve">  -1</t>
+          <t xml:space="preserve"> 130</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> WPA2</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> CCMP</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t xml:space="preserve"> PSK</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t xml:space="preserve">  -1</t>
+          <t xml:space="preserve"> -84</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t xml:space="preserve">        0</t>
+          <t xml:space="preserve">        1</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -6414,12 +6414,12 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0</t>
+          <t xml:space="preserve">  16</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Joglekar_AP_2.4G</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -6439,7 +6439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6450,32 +6450,32 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>02:B6:D7:C3:25:08</t>
+          <t>68:34:21:BA:5D:97</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:21</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:49</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:21</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -77</t>
+          <t xml:space="preserve"> -79</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t xml:space="preserve">        2</t>
+          <t xml:space="preserve">       68</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BE:FA:11:79:13:2D</t>
+          <t xml:space="preserve"> 8C:0C:90:7C:38:5A</t>
         </is>
       </c>
       <c r="G1" t="inlineStr"/>
@@ -6483,32 +6483,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>72:F4:46:D6:61:3F</t>
+          <t>6C:F6:DA:C3:FA:A0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:21</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:26</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -40</t>
+          <t xml:space="preserve"> -83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">        3</t>
+          <t xml:space="preserve">        1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2A:C5:D2:FB:71:65</t>
+          <t xml:space="preserve"> 46:94:2E:46:EF:B9</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -6516,140 +6516,139 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C8:5E:A9:25:08:5F</t>
+          <t>C6:E3:03:B7:72:D0</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:21</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:33</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:02</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -78</t>
+          <t xml:space="preserve"> -90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">       19</t>
+          <t xml:space="preserve">        3</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 82:E9:3A:2D:60:35</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
+          <t xml:space="preserve"> 06:C8:79:E4:09:C4</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>🔱🕉️OMKAR🔱🕉️</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C2:94:5D:8F:20:EC</t>
+          <t>D0:39:57:CD:60:3B</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:21</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:21</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -81</t>
+          <t xml:space="preserve">  -1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        3</t>
+          <t xml:space="preserve">       13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (not associated) </t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Bhagyashree</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mule </t>
-        </is>
-      </c>
+          <t xml:space="preserve"> D4:BD:4F:13:83:D9</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>42:28:0B:85:34:60</t>
+          <t>4C:D5:77:BF:C7:BD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:21</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:51</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:21</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:01</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -86</t>
+          <t xml:space="preserve"> -82</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">        2</t>
+          <t xml:space="preserve">       18</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 96:96:C0:94:02:C4</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
+          <t xml:space="preserve"> 8C:90:2D:C9:23:1D</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>PG_Research</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DE:45:86:C9:67:C9</t>
+          <t>4C:82:A9:E6:77:B3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:22</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:51</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:27</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:51</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -75</t>
+          <t xml:space="preserve"> -84</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">        9</t>
+          <t xml:space="preserve">        1</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AE:4B:56:51:54:3A</t>
+          <t xml:space="preserve"> 4C:D5:77:BF:90:39</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -6657,32 +6656,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>E2:3E:FB:CE:42:5A</t>
+          <t>28:D0:43:28:20:DF</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:22</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:51</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:26</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:51</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -73</t>
+          <t xml:space="preserve"> -82</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">        3</t>
+          <t xml:space="preserve">        1</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FE:F5:CB:12:C9:22</t>
+          <t xml:space="preserve"> 4C:D5:77:BF:90:39</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -6690,32 +6689,32 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>56:E4:A5:67:01:C7</t>
+          <t>F2:84:6B:C4:13:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:22</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:51</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:34</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:51</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -83</t>
+          <t xml:space="preserve"> -41</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">        4</t>
+          <t xml:space="preserve">        1</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CA:8A:9A:FF:72:2E</t>
+          <t xml:space="preserve"> (not associated) </t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -6723,32 +6722,32 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>50:C2:E8:4A:D3:CB</t>
+          <t>6A:4F:6C:F7:14:CD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:22</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:52</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:35</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:52</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -70</t>
+          <t xml:space="preserve"> -84</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">       82</t>
+          <t xml:space="preserve">        2</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8C:0C:90:FC:38:51</t>
+          <t xml:space="preserve"> (not associated) </t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -6756,32 +6755,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>68:7A:64:D1:D9:FE</t>
+          <t>D2:BB:43:D7:FD:E3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:23</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:52</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:34</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:01</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -78</t>
+          <t xml:space="preserve"> -39</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">       20</t>
+          <t xml:space="preserve">        3</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> E6:7D:7D:8D:A2:3F</t>
+          <t xml:space="preserve"> 46:94:2E:46:EF:B9</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -6789,32 +6788,32 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>36:8A:E7:53:0F:8E</t>
+          <t>28:7F:CF:FD:28:F7</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:23</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:53</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:23</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:03</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -87</t>
+          <t xml:space="preserve">  -1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1</t>
+          <t xml:space="preserve">       55</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (not associated) </t>
+          <t xml:space="preserve"> 8C:0C:90:3C:38:52</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -6822,32 +6821,32 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>36:DB:F9:A6:2B:0F</t>
+          <t>C2:D2:FC:F6:48:17</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:24</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:53</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:24</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:53</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -86</t>
+          <t xml:space="preserve"> -94</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1</t>
+          <t xml:space="preserve">        2</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (not associated) </t>
+          <t xml:space="preserve"> 54:A2:45:13:C3:51</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -6855,32 +6854,32 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>28:C5:D2:4E:AD:7C</t>
+          <t>16:18:15:3A:FE:AC</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:25</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:53</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:27</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -76</t>
+          <t xml:space="preserve"> -82</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">       48</t>
+          <t xml:space="preserve">        6</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8C:0C:90:7C:38:52</t>
+          <t xml:space="preserve"> 54:A2:45:13:C3:51</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -6888,32 +6887,32 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>8A:40:31:C9:D3:A7</t>
+          <t>B6:10:AC:64:CF:E0</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:26</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:54</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:26</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -83</t>
+          <t xml:space="preserve"> -53</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">        2</t>
+          <t xml:space="preserve">        7</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (not associated) </t>
+          <t xml:space="preserve"> 70:9C:D1:87:99:C5</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -6921,32 +6920,32 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BE:44:BF:7C:E1:5A</t>
+          <t>14:13:33:57:83:4F</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:27</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:54</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:27</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:59</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -89</t>
+          <t xml:space="preserve"> -78</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">        2</t>
+          <t xml:space="preserve">        7</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A2:EE:34:BD:C7:1D</t>
+          <t xml:space="preserve"> 0E:8D:29:FF:75:E2</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -6954,32 +6953,32 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>28:D0:43:36:15:C1</t>
+          <t>F4:3B:D8:D2:3E:30</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:27</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:55</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:35</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -76</t>
+          <t xml:space="preserve"> -90</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">       13</t>
+          <t xml:space="preserve">        5</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8C:0C:90:3C:38:50</t>
+          <t xml:space="preserve"> 5E:20:04:8B:56:22</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -6987,65 +6986,69 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>E4:0D:36:56:36:C8</t>
+          <t>70:15:FB:E4:4F:18</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:27</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:55</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:27</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -81</t>
+          <t xml:space="preserve"> -41</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">        2</t>
+          <t xml:space="preserve">        4</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> D2:C2:E8:20:EE:2F</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
+          <t xml:space="preserve"> (not associated) </t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>DIRECT-</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>90:65:84:46:57:D5</t>
+          <t>70:15:FB:E4:50:D9</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:27</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:58</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:27</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:03</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -74</t>
+          <t xml:space="preserve"> -61</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">       13</t>
+          <t xml:space="preserve">        2</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8C:0C:90:3C:38:52</t>
+          <t xml:space="preserve"> 70:9C:D1:87:99:C5</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -7053,32 +7056,32 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>C8:8A:9A:FF:72:2E</t>
+          <t>DA:07:B6:46:47:E6</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:27</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:58</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:27</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:58</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -84</t>
+          <t xml:space="preserve">  -1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">        5</t>
+          <t xml:space="preserve">        1</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8C:0C:90:7C:38:5B</t>
+          <t xml:space="preserve"> 7A:20:51:17:8F:5A</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -7086,32 +7089,32 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CE:79:4A:11:90:FB</t>
+          <t>1A:AE:FC:93:22:E6</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:27</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:59</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:27</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:59</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -62</t>
+          <t xml:space="preserve"> -46</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1</t>
+          <t xml:space="preserve">        2</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2A:C5:D2:FB:71:65</t>
+          <t xml:space="preserve"> (not associated) </t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -7119,27 +7122,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4C:D5:77:BF:8D:E3</t>
+          <t>B6:20:64:C8:50:B3</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:27</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:59</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:27</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:59</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -65</t>
+          <t xml:space="preserve"> -49</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve">       13</t>
+          <t xml:space="preserve">        2</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -7152,32 +7155,32 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>50:C2:E8:20:EE:2F</t>
+          <t>CE:C2:73:CF:D0:2A</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:27</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:59</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:34</t>
+          <t xml:space="preserve"> 2025-12-16 10:47:59</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -72</t>
+          <t xml:space="preserve"> -88</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve">       34</t>
+          <t xml:space="preserve">        1</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8C:0C:90:7C:38:5A</t>
+          <t xml:space="preserve"> (not associated) </t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -7185,22 +7188,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A8:41:F4:3A:AB:21</t>
+          <t>70:15:FB:E4:4F:17</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:28</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:01</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:28</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:01</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  -1</t>
+          <t xml:space="preserve"> -61</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -7210,7 +7213,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EA:41:F4:3B:3B:93</t>
+          <t xml:space="preserve"> (not associated) </t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -7218,65 +7221,74 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A8:41:F4:3A:A9:83</t>
+          <t>66:DC:2B:0C:6B:E3</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:29</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:02</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:29</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:02</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  -1</t>
+          <t xml:space="preserve"> -78</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1</t>
+          <t xml:space="preserve">        7</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EA:41:F4:3B:3B:93</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
+          <t xml:space="preserve"> (not associated) </t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>ABHISHEK</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Amit@Bharja</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>76:1C:09:72:E6:87</t>
+          <t>DC:90:09:69:A8:6B</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:29</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:03</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:29</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:03</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -80</t>
+          <t xml:space="preserve"> -42</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve">        2</t>
+          <t xml:space="preserve">        1</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (not associated) </t>
+          <t xml:space="preserve"> 70:9C:D1:87:99:C5</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -7284,585 +7296,68 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>B2:C9:3D:60:E7:8F</t>
+          <t>40:1A:58:5B:38:71</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:29</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:03</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:29</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:03</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -78</t>
+          <t xml:space="preserve"> -80</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve">       10</t>
+          <t xml:space="preserve">        1</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (not associated) </t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>KINGSMAN</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>MRUNAL</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>PCCOE9001</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 8C:0C:90:FC:38:51</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>B2:61:01:27:B5:92</t>
+          <t>0A:E9:34:D7:37:ED</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:29</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:30</t>
+          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -69</t>
+          <t xml:space="preserve"> -86</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve">        4</t>
+          <t xml:space="preserve">        1</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (not associated) </t>
+          <t xml:space="preserve"> FA:FE:D4:5C:95:6B</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>1E:52:C8:04:0C:55</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:30</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:30</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -86</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        2</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (not associated) </t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Oppo A 53</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>A6:6B:9C:88:08:FF</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:30</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:30</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -77</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        2</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (not associated) </t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>7A:11:F3:20:22:DE</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:30</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:30</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -83</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        1</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (not associated) </t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Shreyas Patil</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>42:D7:AD:CB:4D:D3</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:31</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:31</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -82</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        1</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (not associated) </t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>6E:CA:7D:25:AE:35</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:33</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:33</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -72</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        3</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (not associated) </t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>3E:62:64:47:A7:3D</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:33</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:33</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -87</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        8</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 46:5B:18:02:0C:39</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>CC:47:40:F5:25:2E</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:33</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:33</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -88</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        2</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 22:BE:06:DA:D3:DB</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>56:F6:7B:5D:4C:41</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:33</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:33</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -77</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        2</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> CA:8A:9A:FF:72:2E</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>50:3E:AA:69:1C:2F</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:33</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:34</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  -1</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        2</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 90:3A:72:0D:0C:68</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>D2:B6:D4:A5:70:E9</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:34</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:34</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -86</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        1</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5E:9B:73:75:B5:34</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>20:1E:88:F2:E0:13</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:34</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:34</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -63</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        1</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8C:0C:90:7C:38:52</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>30:03:C8:83:FC:49</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:34</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:34</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -70</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        2</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8C:0C:90:7C:38:52</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>24:EB:16:C4:46:C2</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:34</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:35</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -86</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        2</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8C:0C:90:7C:38:52</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>46:60:95:61:1D:41</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:34</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:34</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -87</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        1</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> E6:7D:7D:8D:A2:3F</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>DC:FB:48:03:FD:CC</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:35</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-09-16 12:38:35</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -74</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        2</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> D6:54:60:6B:CC:D2</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/wifi_scan.xlsx
+++ b/wifi_scan.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O78"/>
+  <dimension ref="A1:O70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,22 +502,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>8C:0C:90:3C:38:58</t>
+          <t>E6:D6:73:E2:C6:B0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:49</t>
+          <t xml:space="preserve"> 2025-12-16 16:15:57</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:11</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10</t>
+          <t xml:space="preserve">  6</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -527,27 +527,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPN</t>
+          <t xml:space="preserve"> WPA2</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> CCMP</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t xml:space="preserve"> PSK</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -70</t>
+          <t xml:space="preserve"> -21</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t xml:space="preserve">       10</t>
+          <t xml:space="preserve">       30</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -562,12 +562,12 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12</t>
+          <t xml:space="preserve">  14</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi 5</t>
+          <t xml:space="preserve"> Adi’s iPhone</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -579,22 +579,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8C:0C:90:BC:38:51</t>
+          <t>8C:0C:90:3C:38:59</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:49</t>
+          <t xml:space="preserve"> 2025-12-16 16:15:57</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:06</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10</t>
+          <t xml:space="preserve"> 11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -619,12 +619,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -75</t>
+          <t xml:space="preserve"> -69</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t xml:space="preserve">        7</t>
+          <t xml:space="preserve">        2</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -639,12 +639,12 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13</t>
+          <t xml:space="preserve">  12</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi 21</t>
+          <t xml:space="preserve"> PCET Wi-Fi 9</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -656,22 +656,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8C:0C:90:7C:38:5A</t>
+          <t>8C:0C:90:FC:38:58</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:49</t>
+          <t xml:space="preserve"> 2025-12-16 16:15:57</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:12</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10</t>
+          <t xml:space="preserve"> 11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -696,12 +696,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -72</t>
+          <t xml:space="preserve"> -73</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        7</t>
+          <t xml:space="preserve">        4</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13</t>
+          <t xml:space="preserve">  12</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi 13</t>
+          <t xml:space="preserve"> PCET Wi-Fi 8</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -733,22 +733,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8C:0C:90:7C:38:51</t>
+          <t>8C:0C:90:BC:38:51</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:49</t>
+          <t xml:space="preserve"> 2025-12-16 16:15:57</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:11</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10</t>
+          <t xml:space="preserve"> 11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -72</t>
+          <t xml:space="preserve"> -74</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t xml:space="preserve">        9</t>
+          <t xml:space="preserve">        3</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi 20</t>
+          <t xml:space="preserve"> PCET Wi-Fi 21</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -810,22 +810,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>8C:0C:90:BC:38:5A</t>
+          <t>C4:75:AB:2E:49:97</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:49</t>
+          <t xml:space="preserve"> 2025-12-16 16:15:57</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:07</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10</t>
+          <t xml:space="preserve">  1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -835,27 +835,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPN</t>
+          <t xml:space="preserve"> WPA3 WPA2</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> CCMP</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t xml:space="preserve"> SAE CMAC PSK</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -72</t>
+          <t xml:space="preserve"> -76</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t xml:space="preserve">        6</t>
+          <t xml:space="preserve">        2</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -870,12 +870,12 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13</t>
+          <t xml:space="preserve">   3</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi 14</t>
+          <t xml:space="preserve"> SKY</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -887,52 +887,52 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>8C:0C:90:7C:38:50</t>
+          <t>DE:07:B6:D8:2B:26</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:49</t>
+          <t xml:space="preserve"> 2025-12-16 16:15:57</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:09</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10</t>
+          <t xml:space="preserve">  2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 130</t>
+          <t xml:space="preserve"> 195</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPN</t>
+          <t xml:space="preserve"> WPA2</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> CCMP</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t xml:space="preserve"> PSK</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -73</t>
+          <t xml:space="preserve"> -85</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t xml:space="preserve">        9</t>
+          <t xml:space="preserve">        6</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -947,12 +947,12 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12</t>
+          <t xml:space="preserve">   0</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi 1</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -964,57 +964,57 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8C:0C:90:BC:38:5B</t>
+          <t>CE:45:68:4C:95:B7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:49</t>
+          <t xml:space="preserve"> 2025-12-16 16:15:57</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:03</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:09</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10</t>
+          <t xml:space="preserve">  1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 130</t>
+          <t xml:space="preserve"> 180</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPN</t>
+          <t xml:space="preserve"> WPA2</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> CCMP</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t xml:space="preserve"> PSK</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -78</t>
+          <t xml:space="preserve"> -60</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t xml:space="preserve">        6</t>
+          <t xml:space="preserve">       13</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t xml:space="preserve">        0</t>
+          <t xml:space="preserve">       18</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1024,12 +1024,12 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13</t>
+          <t xml:space="preserve">   9</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi 18</t>
+          <t xml:space="preserve"> vivo T2x </t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1041,52 +1041,52 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8C:0C:90:3C:38:50</t>
+          <t>96:B8:D7:F2:FE:DE</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:49</t>
+          <t xml:space="preserve"> 2025-12-16 16:15:57</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:02</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10</t>
+          <t xml:space="preserve">  1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 130</t>
+          <t xml:space="preserve"> 180</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPN</t>
+          <t xml:space="preserve"> WPA2</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> CCMP</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t xml:space="preserve"> PSK</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -79</t>
+          <t xml:space="preserve"> -84</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t xml:space="preserve">       10</t>
+          <t xml:space="preserve">        3</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1101,12 +1101,12 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t xml:space="preserve">  10</t>
+          <t xml:space="preserve">  16</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi</t>
+          <t xml:space="preserve"> OPPO F21s Pro 5G</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1118,52 +1118,52 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8C:0C:90:FC:38:5B</t>
+          <t>36:61:5E:56:A5:6E</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:49</t>
+          <t xml:space="preserve"> 2025-12-16 16:15:57</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:09</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10</t>
+          <t xml:space="preserve">  1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 130</t>
+          <t xml:space="preserve"> 180</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPN</t>
+          <t xml:space="preserve"> WPA2</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> CCMP</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t xml:space="preserve"> PSK</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -72</t>
+          <t xml:space="preserve"> -46</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t xml:space="preserve">        9</t>
+          <t xml:space="preserve">        7</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1178,12 +1178,12 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13</t>
+          <t xml:space="preserve">  11</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi 19</t>
+          <t xml:space="preserve"> iQOO Z7s 5G</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1195,17 +1195,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4C:D5:77:BF:90:39</t>
+          <t>70:47:77:5A:D7:70</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
+          <t xml:space="preserve"> 2025-12-16 16:15:57</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:00</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:07</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1230,22 +1230,22 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SAE CMAC PSK</t>
+          <t xml:space="preserve"> SAE PSK</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -87</t>
+          <t xml:space="preserve"> -78</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t xml:space="preserve">        6</t>
+          <t xml:space="preserve">        3</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1</t>
+          <t xml:space="preserve">        0</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1255,12 +1255,12 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t xml:space="preserve">   8</t>
+          <t xml:space="preserve">  14</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SDC Club</t>
+          <t xml:space="preserve"> EnTC 5th Floor</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1272,17 +1272,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5E:20:04:8B:56:22</t>
+          <t>52:61:BD:47:10:68</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
+          <t xml:space="preserve"> 2025-12-16 16:15:57</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:01</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:07</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1292,12 +1292,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 360</t>
+          <t xml:space="preserve"> 180</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WPA2</t>
+          <t xml:space="preserve"> WPA3 WPA2</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1307,22 +1307,22 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSK</t>
+          <t xml:space="preserve"> SAE PSK</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -76</t>
+          <t xml:space="preserve"> -77</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t xml:space="preserve">        5</t>
+          <t xml:space="preserve">        3</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t xml:space="preserve">        0</t>
+          <t xml:space="preserve">        9</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1332,12 +1332,12 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t xml:space="preserve">  10</t>
+          <t xml:space="preserve">   6</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Riya's S24</t>
+          <t xml:space="preserve"> dishaa</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1349,27 +1349,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>70:47:77:9A:FB:D8</t>
+          <t>34:68:95:19:53:A6</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
+          <t xml:space="preserve"> 2025-12-16 16:15:58</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:00</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:11</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1</t>
+          <t xml:space="preserve">  6</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 360</t>
+          <t xml:space="preserve">  65</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1389,12 +1389,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -78</t>
+          <t xml:space="preserve"> -65</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t xml:space="preserve">        5</t>
+          <t xml:space="preserve">       20</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1409,12 +1409,12 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11</t>
+          <t xml:space="preserve">  28</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Guest Users</t>
+          <t xml:space="preserve"> HP-Print-A6-LaserJet Pro MFP</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1426,72 +1426,72 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>46:94:2E:46:EF:B9</t>
+          <t>D4:BD:4F:13:83:D9</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
+          <t xml:space="preserve"> 2025-12-16 16:15:58</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:01</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:11</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1</t>
+          <t xml:space="preserve">  6</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 180</t>
+          <t xml:space="preserve"> 360</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WPA2</t>
+          <t xml:space="preserve"> OPN</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CCMP</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSK</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -82</t>
+          <t xml:space="preserve"> -84</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t xml:space="preserve">        2</t>
+          <t xml:space="preserve">        9</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t xml:space="preserve">        2</t>
+          <t xml:space="preserve">       38</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.  0.  0.  0</t>
+          <t xml:space="preserve">  10. 90.  2. 57</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t xml:space="preserve">   4</t>
+          <t xml:space="preserve">  14</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mmmm</t>
+          <t xml:space="preserve"> Girls Hostel 2</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1503,27 +1503,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>44:1E:98:E0:53:C8</t>
+          <t>D4:BD:4F:13:83:D8</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
+          <t xml:space="preserve"> 2025-12-16 16:15:58</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:11</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1</t>
+          <t xml:space="preserve">  6</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 130</t>
+          <t xml:space="preserve"> 360</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1543,12 +1543,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -82</t>
+          <t xml:space="preserve"> -83</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1</t>
+          <t xml:space="preserve">       14</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1563,12 +1563,12 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t xml:space="preserve">   7</t>
+          <t xml:space="preserve">  17</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SBCOAD2</t>
+          <t xml:space="preserve"> New Boys Hostel 1</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1580,22 +1580,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>70:47:77:DA:FB:D8</t>
+          <t>76:1E:52:A4:06:8E</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
+          <t xml:space="preserve"> 2025-12-16 16:15:58</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:00</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:11</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1</t>
+          <t xml:space="preserve">  6</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1605,32 +1605,32 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPN</t>
+          <t xml:space="preserve"> WPA3 WPA2</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> CCMP</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t xml:space="preserve"> SAE PSK</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -79</t>
+          <t xml:space="preserve"> -66</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t xml:space="preserve">        4</t>
+          <t xml:space="preserve">       15</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t xml:space="preserve">        0</t>
+          <t xml:space="preserve">        2</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1640,12 +1640,12 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12</t>
+          <t xml:space="preserve">  20</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Student</t>
+          <t xml:space="preserve"> Mahesh's Moto edge50</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1657,22 +1657,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>70:47:77:1A:FB:D8</t>
+          <t>70:47:77:5B:6F:08</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
+          <t xml:space="preserve"> 2025-12-16 16:15:58</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:00</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:07</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1</t>
+          <t xml:space="preserve">  6</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1697,12 +1697,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -81</t>
+          <t xml:space="preserve"> -77</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t xml:space="preserve">        5</t>
+          <t xml:space="preserve">        1</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11</t>
+          <t xml:space="preserve">  13</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCCoE Staff</t>
+          <t xml:space="preserve"> PCCoE Staff 1</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1734,22 +1734,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>36:61:5E:56:A5:6E</t>
+          <t>76:65:51:58:9F:5B</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
+          <t xml:space="preserve"> 2025-12-16 16:15:58</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:01</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:11</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1</t>
+          <t xml:space="preserve">  6</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WPA2</t>
+          <t xml:space="preserve"> WPA3 WPA2</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1769,17 +1769,17 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSK</t>
+          <t xml:space="preserve"> SAE PSK</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -38</t>
+          <t xml:space="preserve"> -84</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t xml:space="preserve">        8</t>
+          <t xml:space="preserve">        6</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1794,12 +1794,12 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11</t>
+          <t xml:space="preserve">  12</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> iQOO Z7s 5G</t>
+          <t xml:space="preserve"> OPPO K13 5G </t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1811,32 +1811,32 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>06:C8:79:E4:09:C4</t>
+          <t>D4:BD:4F:53:83:D9</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
+          <t xml:space="preserve"> 2025-12-16 16:15:58</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:55</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:11</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1</t>
+          <t xml:space="preserve">  6</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">  -1</t>
+          <t xml:space="preserve"> 360</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> OPN</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1851,19 +1851,19 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t xml:space="preserve">  -1</t>
+          <t xml:space="preserve"> -84</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
+          <t xml:space="preserve">       11</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
           <t xml:space="preserve">        0</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        0</t>
-        </is>
-      </c>
       <c r="L19" t="inlineStr">
         <is>
           <t xml:space="preserve">   0.  0.  0.  0</t>
@@ -1871,12 +1871,12 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0</t>
+          <t xml:space="preserve">  17</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> New Boys Hostel 4</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1888,17 +1888,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>90:3A:72:0D:0B:88</t>
+          <t>D4:BD:4F:93:83:DA</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
+          <t xml:space="preserve"> 2025-12-16 16:15:58</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:00</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:11</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 130</t>
+          <t xml:space="preserve"> 360</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -81</t>
+          <t xml:space="preserve"> -82</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1948,12 +1948,12 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t xml:space="preserve">   6</t>
+          <t xml:space="preserve">  12</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SBCOAD</t>
+          <t xml:space="preserve"> PCET Student</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1965,17 +1965,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>D4:BD:4F:13:83:D9</t>
+          <t>D4:BD:4F:13:83:DA</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
+          <t xml:space="preserve"> 2025-12-16 16:15:58</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:07</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2010,27 +2010,27 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t xml:space="preserve">        6</t>
+          <t xml:space="preserve">        9</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t xml:space="preserve">       13</t>
+          <t xml:space="preserve">        0</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t xml:space="preserve">  10. 90.  2. 42</t>
+          <t xml:space="preserve">   0.  0.  0.  0</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t xml:space="preserve">  14</t>
+          <t xml:space="preserve">  17</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Girls Hostel 2</t>
+          <t xml:space="preserve"> New Boys Hostel 6</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -2042,17 +2042,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>D4:BD:4F:D3:83:D8</t>
+          <t>D4:BD:4F:93:83:D8</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
+          <t xml:space="preserve"> 2025-12-16 16:15:58</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:59</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:11</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2082,12 +2082,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -82</t>
+          <t xml:space="preserve"> -84</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t xml:space="preserve">        4</t>
+          <t xml:space="preserve">       10</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2102,12 +2102,12 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t xml:space="preserve">  14</t>
+          <t xml:space="preserve">  17</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Girls Hostel 1</t>
+          <t xml:space="preserve"> New Boys Hostel 3</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2119,42 +2119,42 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>D4:BD:4F:D3:83:D9</t>
+          <t>E8:48:B8:5A:6C:E2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
+          <t xml:space="preserve"> 2025-12-16 16:15:58</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:59</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:09</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6</t>
+          <t xml:space="preserve">  2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 360</t>
+          <t xml:space="preserve"> 195</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPN</t>
+          <t xml:space="preserve"> WPA2</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> CCMP</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t xml:space="preserve"> PSK</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2164,7 +2164,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t xml:space="preserve">        8</t>
+          <t xml:space="preserve">        1</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2179,12 +2179,12 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  17</t>
+          <t xml:space="preserve">   5</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New Boys Hostel 5</t>
+          <t xml:space="preserve"> Oppo9</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2196,52 +2196,52 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>34:68:95:19:53:A6</t>
+          <t>B0:19:21:75:62:5E</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
+          <t xml:space="preserve"> 2025-12-16 16:15:58</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:03</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6</t>
+          <t xml:space="preserve">  2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  65</t>
+          <t xml:space="preserve"> 270</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPN</t>
+          <t xml:space="preserve"> WPA2</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> CCMP</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t xml:space="preserve"> PSK</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -38</t>
+          <t xml:space="preserve"> -89</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t xml:space="preserve">       32</t>
+          <t xml:space="preserve">        2</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  28</t>
+          <t xml:space="preserve">  13</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HP-Print-A6-LaserJet Pro MFP</t>
+          <t xml:space="preserve"> MADHURI -GH 2</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2273,52 +2273,52 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>90:3A:72:4D:0B:88</t>
+          <t>D8:07:B6:D8:2B:26</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
+          <t xml:space="preserve"> 2025-12-16 16:15:58</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:00</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:03</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6</t>
+          <t xml:space="preserve">  2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 130</t>
+          <t xml:space="preserve"> 195</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPN</t>
+          <t xml:space="preserve"> WPA2</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> CCMP TKIP</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t xml:space="preserve"> PSK</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -79</t>
+          <t xml:space="preserve"> -80</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t xml:space="preserve">       11</t>
+          <t xml:space="preserve">        4</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2333,12 +2333,12 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t xml:space="preserve">  10</t>
+          <t xml:space="preserve">  12</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET STAFF</t>
+          <t xml:space="preserve"> TP-Link_2B26</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2350,52 +2350,52 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>D4:BD:4F:93:83:D8</t>
+          <t>00:17:7C:AD:C3:C3</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
+          <t xml:space="preserve"> 2025-12-16 16:15:59</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:00</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:09</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6</t>
+          <t xml:space="preserve">  8</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 360</t>
+          <t xml:space="preserve"> 130</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPN</t>
+          <t xml:space="preserve"> WPA2</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> CCMP TKIP</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t xml:space="preserve"> PSK</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -83</t>
+          <t xml:space="preserve"> -86</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t xml:space="preserve">        5</t>
+          <t xml:space="preserve">        4</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2410,12 +2410,12 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  17</t>
+          <t xml:space="preserve">  14</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New Boys Hostel 3</t>
+          <t xml:space="preserve"> aditya_biradar</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2427,57 +2427,57 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>D4:BD:4F:13:83:DA</t>
+          <t>F8:C4:F3:86:C8:71</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
+          <t xml:space="preserve"> 2025-12-16 16:15:59</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:59</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:11</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6</t>
+          <t xml:space="preserve"> 10</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 360</t>
+          <t xml:space="preserve"> 130</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPN</t>
+          <t xml:space="preserve"> WPA2</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> CCMP TKIP</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t xml:space="preserve"> PSK</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -80</t>
+          <t xml:space="preserve"> -29</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t xml:space="preserve">        7</t>
+          <t xml:space="preserve">       14</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t xml:space="preserve">        0</t>
+          <t xml:space="preserve">        1</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2487,12 +2487,12 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  17</t>
+          <t xml:space="preserve">  12</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New Boys Hostel 6</t>
+          <t xml:space="preserve"> ShieldSphere</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2504,27 +2504,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>D4:BD:4F:93:83:DA</t>
+          <t>8C:0C:90:3C:38:52</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:00</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:59</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:06</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6</t>
+          <t xml:space="preserve"> 11</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 360</t>
+          <t xml:space="preserve"> 130</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2544,12 +2544,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -81</t>
+          <t xml:space="preserve"> -72</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t xml:space="preserve">        6</t>
+          <t xml:space="preserve">        4</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2564,12 +2564,12 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12</t>
+          <t xml:space="preserve">  13</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Student</t>
+          <t xml:space="preserve"> PCET Wi-Fi 23</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2581,27 +2581,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>D4:BD:4F:93:83:D9</t>
+          <t>8C:0C:90:7C:38:51</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:00</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:59</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:12</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6</t>
+          <t xml:space="preserve"> 11</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 360</t>
+          <t xml:space="preserve"> 130</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t xml:space="preserve">        6</t>
+          <t xml:space="preserve">        3</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2641,12 +2641,12 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t xml:space="preserve">  14</t>
+          <t xml:space="preserve">  13</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Girls Hostel 3</t>
+          <t xml:space="preserve"> PCET Wi-Fi 20</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2658,52 +2658,52 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CE:4F:53:03:EC:13</t>
+          <t>8C:0C:90:BC:38:5A</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:00</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:12</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1</t>
+          <t xml:space="preserve"> 11</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 360</t>
+          <t xml:space="preserve"> 130</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WPA3 WPA2</t>
+          <t xml:space="preserve"> OPN</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CCMP</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SAE PSK</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -53</t>
+          <t xml:space="preserve"> -78</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t xml:space="preserve">       22</t>
+          <t xml:space="preserve">        3</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2718,12 +2718,12 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12</t>
+          <t xml:space="preserve">  13</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shivam Niwas</t>
+          <t xml:space="preserve"> PCET Wi-Fi 14</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2735,27 +2735,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>D4:BD:4F:53:83:D8</t>
+          <t>8C:0C:90:3C:38:51</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:59</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:06</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6</t>
+          <t xml:space="preserve"> 11</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 360</t>
+          <t xml:space="preserve"> 130</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2775,12 +2775,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -81</t>
+          <t xml:space="preserve"> -69</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t xml:space="preserve">        3</t>
+          <t xml:space="preserve">        2</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2795,12 +2795,12 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t xml:space="preserve">  17</t>
+          <t xml:space="preserve">  12</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New Boys Hostel 2</t>
+          <t xml:space="preserve"> PCET Wi-Fi 3</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2812,22 +2812,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>90:3A:72:CD:0B:88</t>
+          <t>8C:0C:90:3C:38:50</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:00</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:00</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:12</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6</t>
+          <t xml:space="preserve"> 11</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2852,12 +2852,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -80</t>
+          <t xml:space="preserve"> -71</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t xml:space="preserve">        9</t>
+          <t xml:space="preserve">        6</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2872,12 +2872,12 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t xml:space="preserve">   7</t>
+          <t xml:space="preserve">  10</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SBCOAD2</t>
+          <t xml:space="preserve"> PCET Wi-Fi</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2889,27 +2889,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>D4:BD:4F:13:83:D8</t>
+          <t>8C:0C:90:FC:38:5B</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:00</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:59</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:12</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6</t>
+          <t xml:space="preserve"> 11</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 360</t>
+          <t xml:space="preserve"> 130</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2929,12 +2929,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -79</t>
+          <t xml:space="preserve"> -77</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t xml:space="preserve">        2</t>
+          <t xml:space="preserve">        6</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2949,12 +2949,12 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  17</t>
+          <t xml:space="preserve">  13</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New Boys Hostel 1</t>
+          <t xml:space="preserve"> PCET Wi-Fi 19</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2966,27 +2966,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>D4:BD:4F:53:83:D9</t>
+          <t>8C:0C:90:7C:38:50</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:00</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:00</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:12</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6</t>
+          <t xml:space="preserve"> 11</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 360</t>
+          <t xml:space="preserve"> 130</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3006,32 +3006,32 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -82</t>
+          <t xml:space="preserve"> -77</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t xml:space="preserve">        6</t>
+          <t xml:space="preserve">        4</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t xml:space="preserve">        0</t>
+          <t xml:space="preserve">       66</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0.  0.  0.  0</t>
+          <t xml:space="preserve">  10. 90.  2. 57</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  17</t>
+          <t xml:space="preserve">  12</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New Boys Hostel 4</t>
+          <t xml:space="preserve"> PCET Wi-Fi 1</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -3043,52 +3043,52 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>D4:BD:4F:53:83:DA</t>
+          <t>CA:6E:08:F0:67:B6</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:00</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:12</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6</t>
+          <t xml:space="preserve"> 11</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 360</t>
+          <t xml:space="preserve"> 130</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPN</t>
+          <t xml:space="preserve"> WPA2</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> CCMP</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t xml:space="preserve"> PSK</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -81</t>
+          <t xml:space="preserve"> -73</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t xml:space="preserve">        9</t>
+          <t xml:space="preserve">        3</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3103,12 +3103,12 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  14</t>
+          <t xml:space="preserve">   6</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Girls Hostel 4</t>
+          <t xml:space="preserve"> ARCEUS</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -3120,52 +3120,52 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DE:07:B6:D8:2B:26</t>
+          <t>8C:0C:90:3C:38:58</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:51</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:00</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:01</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:12</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2</t>
+          <t xml:space="preserve"> 11</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 195</t>
+          <t xml:space="preserve"> 130</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WPA2</t>
+          <t xml:space="preserve"> OPN</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CCMP</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSK</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -75</t>
+          <t xml:space="preserve"> -71</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t xml:space="preserve">        6</t>
+          <t xml:space="preserve">        5</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -3180,12 +3180,12 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0</t>
+          <t xml:space="preserve">  12</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> PCET Wi-Fi 5</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -3197,32 +3197,32 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>8C:90:2D:C9:23:1D</t>
+          <t>8C:0C:90:3C:38:5B</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:51</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:01</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:51</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:12</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2</t>
+          <t xml:space="preserve"> 11</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  -1</t>
+          <t xml:space="preserve"> 130</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WPA</t>
+          <t xml:space="preserve"> OPN</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -3237,19 +3237,19 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  -1</t>
+          <t xml:space="preserve"> -79</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
+          <t xml:space="preserve">        5</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
           <t xml:space="preserve">        0</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">       16</t>
-        </is>
-      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t xml:space="preserve">   0.  0.  0.  0</t>
@@ -3257,12 +3257,12 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0</t>
+          <t xml:space="preserve">  13</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> PCET Wi-Fi 16</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3274,32 +3274,32 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>E8:48:B8:5A:6C:E2</t>
+          <t>5E:5C:8F:4C:90:4E</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:51</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:01</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:01</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:12</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2</t>
+          <t xml:space="preserve"> 11</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 195</t>
+          <t xml:space="preserve"> 360</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WPA2</t>
+          <t xml:space="preserve"> WPA3 WPA2</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -3309,17 +3309,17 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSK</t>
+          <t xml:space="preserve"> SAE PSK</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -84</t>
+          <t xml:space="preserve"> -55</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t xml:space="preserve">        5</t>
+          <t xml:space="preserve">        7</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3334,12 +3334,12 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t xml:space="preserve">   5</t>
+          <t xml:space="preserve">   6</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Oppo9</t>
+          <t xml:space="preserve"> Ransom</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3351,52 +3351,52 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>D8:07:B6:D8:2B:26</t>
+          <t>7A:20:51:17:8F:5A</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:51</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:01</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:57</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:01</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2</t>
+          <t xml:space="preserve"> 10</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 195</t>
+          <t xml:space="preserve"> 360</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WPA2</t>
+          <t xml:space="preserve"> WPA3 WPA2</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CCMP TKIP</t>
+          <t xml:space="preserve"> CCMP</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSK</t>
+          <t xml:space="preserve"> SAE PSK</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -77</t>
+          <t xml:space="preserve"> -85</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t xml:space="preserve">        2</t>
+          <t xml:space="preserve">        1</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3411,12 +3411,12 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12</t>
+          <t xml:space="preserve">  16</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TP-Link_2B26</t>
+          <t xml:space="preserve"> Joglekar_AP_2.4G</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3428,52 +3428,52 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>FA:48:B8:5A:6C:E2</t>
+          <t>70:47:77:9B:6F:08</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:51</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:01</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:56</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:07</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2</t>
+          <t xml:space="preserve">  6</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 195</t>
+          <t xml:space="preserve"> 360</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WPA2</t>
+          <t xml:space="preserve"> OPN</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CCMP</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSK</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -79</t>
+          <t xml:space="preserve"> -80</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t xml:space="preserve">        4</t>
+          <t xml:space="preserve">        1</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3488,12 +3488,12 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0</t>
+          <t xml:space="preserve">  11</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Guest Users</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3505,52 +3505,52 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>F8:C4:F3:86:C8:71</t>
+          <t>D4:BD:4F:D3:83:D8</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:51</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:01</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:11</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">  9</t>
+          <t xml:space="preserve">  6</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 130</t>
+          <t xml:space="preserve"> 360</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WPA2</t>
+          <t xml:space="preserve"> OPN</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CCMP TKIP</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSK</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -40</t>
+          <t xml:space="preserve"> -84</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t xml:space="preserve">       36</t>
+          <t xml:space="preserve">        7</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3565,12 +3565,12 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12</t>
+          <t xml:space="preserve">  14</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ShieldSphere</t>
+          <t xml:space="preserve"> Girls Hostel 1</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3582,22 +3582,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>F2:A7:31:2A:71:29</t>
+          <t>D4:BD:4F:53:83:DA</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:51</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:01</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:56</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:07</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">  8</t>
+          <t xml:space="preserve">  6</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3607,27 +3607,27 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WPA2</t>
+          <t xml:space="preserve"> OPN</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CCMP</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSK</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -87</t>
+          <t xml:space="preserve"> -82</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t xml:space="preserve">        3</t>
+          <t xml:space="preserve">        9</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3642,12 +3642,12 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0</t>
+          <t xml:space="preserve">  14</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Girls Hostel 4</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3659,27 +3659,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>F0:A7:31:EA:71:29</t>
+          <t>66:C6:D2:15:EC:96</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:51</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:01</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:51</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:12</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">  8</t>
+          <t xml:space="preserve"> 11</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 360</t>
+          <t xml:space="preserve">  65</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3699,12 +3699,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -86</t>
+          <t xml:space="preserve"> -53</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1</t>
+          <t xml:space="preserve">        6</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3719,12 +3719,12 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13</t>
+          <t xml:space="preserve">  22</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VinayPatil_4G</t>
+          <t xml:space="preserve"> DIRECT-D2-EPSON-156C96</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3736,22 +3736,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>8C:0C:90:BC:38:58</t>
+          <t>8C:0C:90:BC:38:50</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:52</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:01</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:03</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:06</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10</t>
+          <t xml:space="preserve"> 11</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3776,12 +3776,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -73</t>
+          <t xml:space="preserve"> -75</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t xml:space="preserve">        9</t>
+          <t xml:space="preserve">        2</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3796,12 +3796,12 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12</t>
+          <t xml:space="preserve">  11</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi 7</t>
+          <t xml:space="preserve"> Guest Users</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3813,22 +3813,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>8C:0C:90:3C:38:59</t>
+          <t>8C:0C:90:BC:38:5B</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:52</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:01</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:11</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10</t>
+          <t xml:space="preserve"> 11</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3853,12 +3853,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -72</t>
+          <t xml:space="preserve"> -78</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t xml:space="preserve">       12</t>
+          <t xml:space="preserve">        5</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3873,12 +3873,12 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12</t>
+          <t xml:space="preserve">  13</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi 9</t>
+          <t xml:space="preserve"> PCET Wi-Fi 18</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3890,22 +3890,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>8C:0C:90:7C:38:59</t>
+          <t>8C:0C:90:FC:38:51</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:52</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:01</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:12</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10</t>
+          <t xml:space="preserve"> 11</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3930,12 +3930,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -70</t>
+          <t xml:space="preserve"> -77</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t xml:space="preserve">       12</t>
+          <t xml:space="preserve">        6</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3955,7 +3955,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi 11</t>
+          <t xml:space="preserve"> PCET Wi-Fi 22</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3967,27 +3967,27 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>8C:0C:90:BC:38:59</t>
+          <t>70:47:77:DA:FB:D8</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:52</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:01</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:06</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10</t>
+          <t xml:space="preserve"> 11</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 130</t>
+          <t xml:space="preserve"> 360</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4007,12 +4007,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -79</t>
+          <t xml:space="preserve"> -81</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t xml:space="preserve">        9</t>
+          <t xml:space="preserve">        1</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -4027,12 +4027,12 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13</t>
+          <t xml:space="preserve">  12</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi 10</t>
+          <t xml:space="preserve"> PCET Student</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -4044,22 +4044,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>8C:0C:90:FC:38:59</t>
+          <t>CE:D5:77:BF:97:37</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:52</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:01</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:12</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10</t>
+          <t xml:space="preserve"> 11</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -4069,27 +4069,27 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPN</t>
+          <t xml:space="preserve"> WPA2</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> CCMP</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t xml:space="preserve"> PSK</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -71</t>
+          <t xml:space="preserve"> -79</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t xml:space="preserve">        8</t>
+          <t xml:space="preserve">        4</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4104,12 +4104,12 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13</t>
+          <t xml:space="preserve">   4</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi 12</t>
+          <t xml:space="preserve"> PC 9</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -4121,27 +4121,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>8C:0C:90:FC:38:51</t>
+          <t>D4:BD:4F:53:83:D8</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:52</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:02</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:03</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:11</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10</t>
+          <t xml:space="preserve">  6</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 130</t>
+          <t xml:space="preserve"> 360</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4161,7 +4161,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -73</t>
+          <t xml:space="preserve"> -84</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -4181,12 +4181,12 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13</t>
+          <t xml:space="preserve">  17</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi 22</t>
+          <t xml:space="preserve"> New Boys Hostel 2</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -4198,27 +4198,27 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>8C:0C:90:3C:38:5B</t>
+          <t>D4:BD:4F:93:83:D9</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:52</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:02</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:03</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:11</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10</t>
+          <t xml:space="preserve">  6</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 130</t>
+          <t xml:space="preserve"> 360</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4238,12 +4238,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -77</t>
+          <t xml:space="preserve"> -82</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t xml:space="preserve">        6</t>
+          <t xml:space="preserve">        7</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4258,12 +4258,12 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13</t>
+          <t xml:space="preserve">  14</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi 16</t>
+          <t xml:space="preserve"> Girls Hostel 3</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -4275,27 +4275,27 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>8C:0C:90:7C:38:58</t>
+          <t>D4:BD:4F:D3:83:D9</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:52</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:02</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:07</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10</t>
+          <t xml:space="preserve">  6</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 130</t>
+          <t xml:space="preserve"> 360</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4315,12 +4315,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -72</t>
+          <t xml:space="preserve"> -87</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t xml:space="preserve">        9</t>
+          <t xml:space="preserve">        7</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4335,12 +4335,12 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12</t>
+          <t xml:space="preserve">  17</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi 6</t>
+          <t xml:space="preserve"> New Boys Hostel 5</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4352,52 +4352,52 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>8C:0C:90:3C:38:5A</t>
+          <t>9E:A9:37:06:DA:2F</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:52</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:02</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:03</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:07</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10</t>
+          <t xml:space="preserve">  6</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 130</t>
+          <t xml:space="preserve"> 180</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPN</t>
+          <t xml:space="preserve"> WPA3 WPA2</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> CCMP</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t xml:space="preserve"> SAE PSK</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -73</t>
+          <t xml:space="preserve"> -81</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t xml:space="preserve">        7</t>
+          <t xml:space="preserve">        4</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4412,12 +4412,12 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12</t>
+          <t xml:space="preserve">  13</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi 4</t>
+          <t xml:space="preserve"> Redmi Note 12</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4429,52 +4429,52 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>8C:0C:90:7C:38:5B</t>
+          <t>16:E0:50:91:14:8B</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:52</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:02</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:03</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:02</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10</t>
+          <t xml:space="preserve">  6</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 130</t>
+          <t xml:space="preserve"> 180</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OPN</t>
+          <t xml:space="preserve"> WPA2</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> CCMP</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t xml:space="preserve"> PSK</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -78</t>
+          <t xml:space="preserve"> -86</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t xml:space="preserve">        9</t>
+          <t xml:space="preserve">        2</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4489,12 +4489,12 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13</t>
+          <t xml:space="preserve">   4</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi 17</t>
+          <t xml:space="preserve"> Heyy</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4506,32 +4506,32 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>7A:20:51:17:8F:5A</t>
+          <t>FA:48:B8:5A:6C:E2</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:53</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:03</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:58</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:10</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10</t>
+          <t xml:space="preserve">  2</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 360</t>
+          <t xml:space="preserve"> 195</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WPA3 WPA2</t>
+          <t xml:space="preserve"> WPA2</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -4541,22 +4541,22 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SAE PSK</t>
+          <t xml:space="preserve"> PSK</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -85</t>
+          <t xml:space="preserve"> -81</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1</t>
+          <t xml:space="preserve">        8</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1</t>
+          <t xml:space="preserve">        0</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4566,12 +4566,12 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t xml:space="preserve">  16</t>
+          <t xml:space="preserve">   0</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Joglekar_AP_2.4G</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4583,22 +4583,22 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>8C:0C:90:3C:38:52</t>
+          <t>8C:0C:90:FC:38:5A</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:53</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:06</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:11</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10</t>
+          <t xml:space="preserve"> 11</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4623,17 +4623,17 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -85</t>
+          <t xml:space="preserve"> -77</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t xml:space="preserve">        6</t>
+          <t xml:space="preserve">        4</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t xml:space="preserve">       55</t>
+          <t xml:space="preserve">        0</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi 23</t>
+          <t xml:space="preserve"> PCET Wi-Fi 15</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4660,17 +4660,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>70:9C:D1:87:99:C5</t>
+          <t>8C:0C:90:7C:38:58</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:53</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:06</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:12</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -4685,27 +4685,27 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WPA3 WPA2</t>
+          <t xml:space="preserve"> OPN</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CCMP</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SAE CMAC PSK</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -43</t>
+          <t xml:space="preserve"> -71</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t xml:space="preserve">        8</t>
+          <t xml:space="preserve">        3</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4720,12 +4720,12 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11</t>
+          <t xml:space="preserve">  12</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> chirag@kali</t>
+          <t xml:space="preserve"> PCET Wi-Fi 6</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4737,22 +4737,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>8C:0C:90:BC:38:50</t>
+          <t>8C:0C:90:BC:38:58</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:53</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:06</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:59</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:12</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10</t>
+          <t xml:space="preserve"> 11</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -4777,12 +4777,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -72</t>
+          <t xml:space="preserve"> -78</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t xml:space="preserve">        4</t>
+          <t xml:space="preserve">        2</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4797,12 +4797,12 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11</t>
+          <t xml:space="preserve">  12</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Guest Users</t>
+          <t xml:space="preserve"> PCET Wi-Fi 7</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4814,52 +4814,52 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>78:20:51:A7:8F:5A</t>
+          <t>8C:0C:90:3C:38:5A</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:53</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:06</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:53</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:12</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10</t>
+          <t xml:space="preserve"> 11</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 360</t>
+          <t xml:space="preserve"> 130</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WPA2</t>
+          <t xml:space="preserve"> OPN</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CCMP</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSK</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -88</t>
+          <t xml:space="preserve"> -77</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1</t>
+          <t xml:space="preserve">        2</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4874,12 +4874,12 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t xml:space="preserve">  11</t>
+          <t xml:space="preserve">  12</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Joglekar_AP</t>
+          <t xml:space="preserve"> PCET Wi-Fi 4</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4891,22 +4891,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>8C:0C:90:FC:38:58</t>
+          <t>8C:0C:90:FC:38:50</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:53</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:06</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:12</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 10</t>
+          <t xml:space="preserve"> 11</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4931,12 +4931,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -71</t>
+          <t xml:space="preserve"> -77</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t xml:space="preserve">        8</t>
+          <t xml:space="preserve">        5</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4956,7 +4956,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCET Wi-Fi 8</t>
+          <t xml:space="preserve"> PCET Wi-Fi 2</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4968,22 +4968,22 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>54:A2:45:13:C3:51</t>
+          <t>70:47:77:DB:6F:08</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:53</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:06</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:08</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">  5</t>
+          <t xml:space="preserve"> -1</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -5045,17 +5045,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>FA:FE:D4:5C:95:6B</t>
+          <t>8C:0C:90:7C:38:59</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:54</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:06</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:06</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -5065,32 +5065,32 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 180</t>
+          <t xml:space="preserve"> 130</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WPA3 WPA2</t>
+          <t xml:space="preserve"> OPN</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CCMP</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SAE PSK</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -79</t>
+          <t xml:space="preserve"> -70</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t xml:space="preserve">        3</t>
+          <t xml:space="preserve">        2</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5105,12 +5105,12 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t xml:space="preserve">  29</t>
+          <t xml:space="preserve">  13</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OnePlus Nord CE4 Lite 5G 91a5</t>
+          <t xml:space="preserve"> PCET Wi-Fi 11</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -5122,52 +5122,52 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>96:D4:D0:FD:08:43</t>
+          <t>8C:0C:90:BC:38:59</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:54</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:06</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:59</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:06</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6</t>
+          <t xml:space="preserve"> 11</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 360</t>
+          <t xml:space="preserve"> 130</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WPA2</t>
+          <t xml:space="preserve"> OPN</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CCMP</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSK</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -89</t>
+          <t xml:space="preserve"> -70</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t xml:space="preserve">        2</t>
+          <t xml:space="preserve">        1</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5182,12 +5182,12 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t xml:space="preserve">  10</t>
+          <t xml:space="preserve">  13</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DK's Phone</t>
+          <t xml:space="preserve"> PCET Wi-Fi 10</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -5199,52 +5199,52 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>0E:8D:29:FF:75:E2</t>
+          <t>8C:0C:90:7C:38:5A</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:54</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:06</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:00</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:12</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6</t>
+          <t xml:space="preserve"> 11</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 360</t>
+          <t xml:space="preserve"> 130</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WPA2</t>
+          <t xml:space="preserve"> OPN</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CCMP</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSK</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -84</t>
+          <t xml:space="preserve"> -73</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t xml:space="preserve">        4</t>
+          <t xml:space="preserve">        3</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5259,12 +5259,12 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t xml:space="preserve">  12</t>
+          <t xml:space="preserve">  13</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Artic Circle</t>
+          <t xml:space="preserve"> PCET Wi-Fi 13</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -5276,52 +5276,52 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>0C:D2:B5:50:05:16</t>
+          <t>8C:0C:90:7C:38:5B</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:54</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:06</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:00</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:06</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6</t>
+          <t xml:space="preserve"> 11</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 135</t>
+          <t xml:space="preserve"> 130</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WPA2</t>
+          <t xml:space="preserve"> OPN</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CCMP</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSK</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -88</t>
+          <t xml:space="preserve"> -71</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t xml:space="preserve">        6</t>
+          <t xml:space="preserve">        2</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5336,12 +5336,12 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t xml:space="preserve">   9</t>
+          <t xml:space="preserve">  13</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MK Behara</t>
+          <t xml:space="preserve"> PCET Wi-Fi 17</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -5353,22 +5353,22 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>90:3A:72:8D:0B:88</t>
+          <t>8C:0C:90:FC:38:59</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:54</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:06</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:00</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:12</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6</t>
+          <t xml:space="preserve"> 11</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -5393,12 +5393,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -81</t>
+          <t xml:space="preserve"> -74</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t xml:space="preserve">        8</t>
+          <t xml:space="preserve">        3</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5413,12 +5413,12 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t xml:space="preserve">   7</t>
+          <t xml:space="preserve">  13</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SBCOAD1</t>
+          <t xml:space="preserve"> PCET Wi-Fi 12</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5430,52 +5430,52 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>12:6A:B9:D6:D6:CD</t>
+          <t>70:47:77:1A:FB:D8</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:54</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:07</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:00</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:12</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6</t>
+          <t xml:space="preserve"> 11</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t xml:space="preserve">  65</t>
+          <t xml:space="preserve"> 360</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WPA2</t>
+          <t xml:space="preserve"> OPN</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CCMP</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSK</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -92</t>
+          <t xml:space="preserve"> -84</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t xml:space="preserve">        4</t>
+          <t xml:space="preserve">        1</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -5490,12 +5490,12 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t xml:space="preserve">  14</t>
+          <t xml:space="preserve">  11</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Galaxy M01fbf1</t>
+          <t xml:space="preserve"> PCCoE Staff</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -5507,17 +5507,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6A:34:21:AA:31:EC</t>
+          <t>90:3A:72:4D:0B:88</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:54</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:07</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:00</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:07</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -5532,27 +5532,27 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WPA2</t>
+          <t xml:space="preserve"> OPN</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CCMP</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSK</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -65</t>
+          <t xml:space="preserve"> -82</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t xml:space="preserve">        8</t>
+          <t xml:space="preserve">        1</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -5567,12 +5567,12 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t xml:space="preserve">  28</t>
+          <t xml:space="preserve">  10</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DIRECT-JPSES83241175IP10msDN</t>
+          <t xml:space="preserve"> PCET STAFF</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5584,32 +5584,32 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>00:25:00:FF:94:73</t>
+          <t>90:3A:72:8D:0B:88</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:55</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:07</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:55</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:07</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -1</t>
+          <t xml:space="preserve">  6</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t xml:space="preserve">  -1</t>
+          <t xml:space="preserve"> 130</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> OPN</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -5624,19 +5624,19 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t xml:space="preserve">  -1</t>
+          <t xml:space="preserve"> -83</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
+          <t xml:space="preserve">        1</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
           <t xml:space="preserve">        0</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        0</t>
-        </is>
-      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t xml:space="preserve">   0.  0.  0.  0</t>
@@ -5644,12 +5644,12 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t xml:space="preserve">   0</t>
+          <t xml:space="preserve">   7</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> SBCOAD1</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5661,27 +5661,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>70:47:77:5A:FB:D8</t>
+          <t>90:3A:72:CD:0B:88</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:55</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:07</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:00</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:07</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1</t>
+          <t xml:space="preserve">  6</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 360</t>
+          <t xml:space="preserve"> 130</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5706,7 +5706,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t xml:space="preserve">        6</t>
+          <t xml:space="preserve">        1</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5721,12 +5721,12 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t xml:space="preserve">  13</t>
+          <t xml:space="preserve">   7</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PCCoE Staff 1</t>
+          <t xml:space="preserve"> SBCOAD2</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5738,57 +5738,57 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>DA:47:E4:99:EF:8D</t>
+          <t>7C:70:DB:64:22:79</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:55</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:12</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:00</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:12</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1</t>
+          <t xml:space="preserve"> 11</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 180</t>
+          <t xml:space="preserve">  -1</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WPA2</t>
+          <t xml:space="preserve"> OPN</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CCMP</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSK</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -86</t>
+          <t xml:space="preserve">  -1</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t xml:space="preserve">        3</t>
+          <t xml:space="preserve">        0</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t xml:space="preserve">        0</t>
+          <t xml:space="preserve">        4</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5798,631 +5798,15 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t xml:space="preserve">   4</t>
+          <t xml:space="preserve">   0</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Home</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>70:47:77:5A:D7:70</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:55</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:00</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  1</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 130</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> WPA3 WPA2</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> CCMP</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SAE PSK</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -81</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        2</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        0</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   0.  0.  0.  0</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  14</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> EnTC 5th Floor</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>D8:07:B6:8B:76:C4</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:55</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:55</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  1</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 270</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> WPA2</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> CCMP</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PSK</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -86</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        1</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        0</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   0.  0.  0.  0</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  12</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Priti Rajput</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>3E:0D:95:10:F2:C4</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:56</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:59</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  6</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 180</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> WPA2</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> CCMP</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PSK</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -85</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        3</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        0</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   0.  0.  0.  0</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   9</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> vivo V29e</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>98:9D:B2:4D:21:8F</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:56</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:56</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  7</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 270</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> WPA2</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> CCMP TKIP</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PSK</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -87</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        2</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        0</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   0.  0.  0.  0</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   8</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> MEERA 2G</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>8C:0C:90:3C:38:51</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:57</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:59</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 10</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 130</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> OPN</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   </t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -73</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        1</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        0</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   0.  0.  0.  0</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  12</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PCET Wi-Fi 3</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>8C:0C:90:FC:38:50</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:57</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:03</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 10</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 130</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> OPN</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   </t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -74</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        2</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        0</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   0.  0.  0.  0</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  12</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PCET Wi-Fi 2</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>00:17:7C:AD:C3:C3</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:58</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:58</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  4</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 130</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> WPA2</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> CCMP TKIP</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PSK</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -91</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        1</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        0</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   0.  0.  0.  0</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  14</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> aditya_biradar</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>D8:07:B6:3D:50:BF</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:58</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:58</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 10</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 130</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> WPA2</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> CCMP</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PSK</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> -84</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        1</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        0</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   0.  0.  0.  0</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  16</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Joglekar_AP_2.4G</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -6439,7 +5823,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6450,65 +5834,69 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>68:34:21:BA:5D:97</t>
+          <t>BE:B5:57:67:47:44</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:49</t>
+          <t xml:space="preserve"> 2025-12-16 16:15:57</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
+          <t xml:space="preserve"> 2025-12-16 16:15:58</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -79</t>
+          <t xml:space="preserve"> -80</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t xml:space="preserve">       68</t>
+          <t xml:space="preserve">        2</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8C:0C:90:7C:38:5A</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr"/>
+          <t xml:space="preserve"> (not associated) </t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>PCET00123</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>6C:F6:DA:C3:FA:A0</t>
+          <t>DC:90:09:69:A8:48</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
+          <t xml:space="preserve"> 2025-12-16 16:15:57</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
+          <t xml:space="preserve"> 2025-12-16 16:15:57</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -83</t>
+          <t xml:space="preserve"> -56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1</t>
+          <t xml:space="preserve">       11</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 46:94:2E:46:EF:B9</t>
+          <t xml:space="preserve"> CE:45:68:4C:95:B7</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -6516,69 +5904,65 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C6:E3:03:B7:72:D0</t>
+          <t>DC:90:09:C5:69:F3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
+          <t xml:space="preserve"> 2025-12-16 16:15:57</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:02</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:07</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -90</t>
+          <t xml:space="preserve"> -57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">        3</t>
+          <t xml:space="preserve">        4</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 06:C8:79:E4:09:C4</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>🔱🕉️OMKAR🔱🕉️</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> CE:45:68:4C:95:B7</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>D0:39:57:CD:60:3B</t>
+          <t>72:98:87:EB:74:5A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:50</t>
+          <t xml:space="preserve"> 2025-12-16 16:15:57</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
+          <t xml:space="preserve"> 2025-12-16 16:15:58</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  -1</t>
+          <t xml:space="preserve"> -83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">       13</t>
+          <t xml:space="preserve">        6</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> D4:BD:4F:13:83:D9</t>
+          <t xml:space="preserve"> 52:61:BD:47:10:68</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -6586,17 +5970,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4C:D5:77:BF:C7:BD</t>
+          <t>D0:39:57:CD:60:3B</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:51</t>
+          <t xml:space="preserve"> 2025-12-16 16:15:58</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:01</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:11</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -6606,39 +5990,35 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">       18</t>
+          <t xml:space="preserve">       38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8C:90:2D:C9:23:1D</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>PG_Research</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> D4:BD:4F:13:83:D9</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4C:82:A9:E6:77:B3</t>
+          <t>DC:45:46:CF:1A:11</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:51</t>
+          <t xml:space="preserve"> 2025-12-16 16:15:58</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:51</t>
+          <t xml:space="preserve"> 2025-12-16 16:15:58</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -84</t>
+          <t xml:space="preserve"> -42</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -6648,7 +6028,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4C:D5:77:BF:90:39</t>
+          <t xml:space="preserve"> E6:D6:73:E2:C6:B0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -6656,32 +6036,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>28:D0:43:28:20:DF</t>
+          <t>6E:06:75:61:FE:2E</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:51</t>
+          <t xml:space="preserve"> 2025-12-16 16:15:58</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:51</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:11</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -82</t>
+          <t xml:space="preserve"> -70</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1</t>
+          <t xml:space="preserve">       12</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4C:D5:77:BF:90:39</t>
+          <t xml:space="preserve"> 76:1E:52:A4:06:8E</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -6689,27 +6069,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>F2:84:6B:C4:13:00</t>
+          <t>AA:D2:8D:A9:5D:4E</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:51</t>
+          <t xml:space="preserve"> 2025-12-16 16:15:58</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:51</t>
+          <t xml:space="preserve"> 2025-12-16 16:15:58</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -41</t>
+          <t xml:space="preserve"> -80</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1</t>
+          <t xml:space="preserve">        3</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -6722,22 +6102,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6A:4F:6C:F7:14:CD</t>
+          <t>DC:90:09:69:A7:F8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:52</t>
+          <t xml:space="preserve"> 2025-12-16 16:15:59</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:52</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:01</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -84</t>
+          <t xml:space="preserve"> -40</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -6747,7 +6127,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (not associated) </t>
+          <t xml:space="preserve"> F8:C4:F3:86:C8:71</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -6755,65 +6135,69 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>D2:BB:43:D7:FD:E3</t>
+          <t>C4:75:AB:2E:43:07</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:52</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:01</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -39</t>
+          <t xml:space="preserve"> -84</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">        3</t>
+          <t xml:space="preserve">        1</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 46:94:2E:46:EF:B9</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
+          <t xml:space="preserve"> (not associated) </t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>PC 9</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>28:7F:CF:FD:28:F7</t>
+          <t>C8:6E:08:F0:67:B6</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:53</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:03</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:12</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">  -1</t>
+          <t xml:space="preserve"> -73</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">       55</t>
+          <t xml:space="preserve">       60</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8C:0C:90:3C:38:52</t>
+          <t xml:space="preserve"> 8C:0C:90:7C:38:50</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -6821,32 +6205,32 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C2:D2:FC:F6:48:17</t>
+          <t>9A:02:B6:38:9D:71</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:53</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:53</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:07</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -94</t>
+          <t xml:space="preserve"> -82</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">        2</t>
+          <t xml:space="preserve">        4</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 54:A2:45:13:C3:51</t>
+          <t xml:space="preserve"> CA:6E:08:F0:67:B6</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -6854,32 +6238,32 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>16:18:15:3A:FE:AC</t>
+          <t>70:9C:D1:87:99:C5</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:53</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:01</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:01</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -82</t>
+          <t xml:space="preserve"> -42</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">        6</t>
+          <t xml:space="preserve">        1</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 54:A2:45:13:C3:51</t>
+          <t xml:space="preserve"> F8:C4:F3:86:C8:71</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -6887,32 +6271,32 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>B6:10:AC:64:CF:E0</t>
+          <t>DC:90:09:6A:1E:3B</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:54</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:01</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:01</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -53</t>
+          <t xml:space="preserve"> -45</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">        7</t>
+          <t xml:space="preserve">        1</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 70:9C:D1:87:99:C5</t>
+          <t xml:space="preserve"> F8:C4:F3:86:C8:71</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -6920,32 +6304,32 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>14:13:33:57:83:4F</t>
+          <t>70:15:FB:E4:4F:1C</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:54</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:01</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:59</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:01</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -78</t>
+          <t xml:space="preserve"> -48</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">        7</t>
+          <t xml:space="preserve">        1</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0E:8D:29:FF:75:E2</t>
+          <t xml:space="preserve"> F8:C4:F3:86:C8:71</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -6953,32 +6337,32 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>F4:3B:D8:D2:3E:30</t>
+          <t>EE:3D:FF:EE:0F:6A</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:55</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:01</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:00</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:10</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -90</t>
+          <t xml:space="preserve"> -75</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">        5</t>
+          <t xml:space="preserve">        7</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5E:20:04:8B:56:22</t>
+          <t xml:space="preserve"> 76:1E:52:A4:06:8E</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -6986,69 +6370,65 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>70:15:FB:E4:4F:18</t>
+          <t>AA:5E:E6:BF:E0:05</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:55</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:01</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:00</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:12</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -41</t>
+          <t xml:space="preserve"> -78</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">        4</t>
+          <t xml:space="preserve">        5</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (not associated) </t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>DIRECT-</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> CA:6E:08:F0:67:B6</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>70:15:FB:E4:50:D9</t>
+          <t>4C:D5:77:BF:8D:CF</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:58</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:01</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:03</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:09</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -61</t>
+          <t xml:space="preserve"> -67</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">        2</t>
+          <t xml:space="preserve">        6</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 70:9C:D1:87:99:C5</t>
+          <t xml:space="preserve"> (not associated) </t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -7056,32 +6436,32 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>DA:07:B6:46:47:E6</t>
+          <t>F4:3B:D8:D2:3E:30</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:58</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:01</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:58</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:12</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">  -1</t>
+          <t xml:space="preserve"> -85</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1</t>
+          <t xml:space="preserve">        4</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 7A:20:51:17:8F:5A</t>
+          <t xml:space="preserve"> CE:D5:77:BF:97:37</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -7089,32 +6469,32 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1A:AE:FC:93:22:E6</t>
+          <t>DC:90:09:69:99:84</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:59</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:02</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:59</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:02</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -46</t>
+          <t xml:space="preserve">  -1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">        2</t>
+          <t xml:space="preserve">        1</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (not associated) </t>
+          <t xml:space="preserve"> CE:45:68:4C:95:B7</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -7122,22 +6502,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>B6:20:64:C8:50:B3</t>
+          <t>BA:F7:FB:B3:58:DC</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:59</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:02</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:59</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:02</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -49</t>
+          <t xml:space="preserve"> -74</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -7155,22 +6535,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CE:C2:73:CF:D0:2A</t>
+          <t>C2:CE:33:D9:C7:2E</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:59</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:06</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:47:59</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:06</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -88</t>
+          <t xml:space="preserve"> -83</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -7188,32 +6568,32 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>70:15:FB:E4:4F:17</t>
+          <t>5A:48:26:96:2F:E9</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:01</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:06</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:01</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:08</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -61</t>
+          <t xml:space="preserve"> -79</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">        2</t>
+          <t xml:space="preserve">        5</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (not associated) </t>
+          <t xml:space="preserve"> 70:47:77:DB:6F:08</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -7221,74 +6601,65 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>66:DC:2B:0C:6B:E3</t>
+          <t>C8:8A:9A:FE:5F:E7</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:02</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:06</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:02</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:12</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -78</t>
+          <t xml:space="preserve">  -1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve">        7</t>
+          <t xml:space="preserve">        3</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (not associated) </t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>ABHISHEK</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Amit@Bharja</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> 8C:0C:90:7C:38:50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DC:90:09:69:A8:6B</t>
+          <t>6C:88:14:43:AA:98</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:03</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:07</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:03</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:07</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -42</t>
+          <t xml:space="preserve"> -81</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1</t>
+          <t xml:space="preserve">        2</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 70:9C:D1:87:99:C5</t>
+          <t xml:space="preserve"> (not associated) </t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -7296,22 +6667,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>40:1A:58:5B:38:71</t>
+          <t>0C:9A:3C:4D:57:15</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:03</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:07</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:03</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:07</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> -80</t>
+          <t xml:space="preserve"> -76</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -7321,7 +6692,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 8C:0C:90:FC:38:51</t>
+          <t xml:space="preserve"> (not associated) </t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -7329,35 +6700,371 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0A:E9:34:D7:37:ED</t>
+          <t>DE:EE:37:BF:9A:C6</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:07</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-12-16 10:48:04</t>
+          <t xml:space="preserve"> 2025-12-16 16:16:08</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t xml:space="preserve"> -67</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (not associated) </t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>iPhone</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Airtel_raje_3869</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Madhu’s iPhone</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>OnePlus Nord CE 3 Lite 5G</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Rayynnuu</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>SpectrumSetup-B0</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Hotel Parle International</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Madhu\xA1\xAFs iPhone</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>DC:90:09:C7:28:01</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-12-16 16:16:07</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-12-16 16:16:07</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -57</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        1</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CE:45:68:4C:95:B7</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>20:2B:20:4D:52:67</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-12-16 16:16:07</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-12-16 16:16:07</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t xml:space="preserve"> -86</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t xml:space="preserve">        1</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> FA:FE:D4:5C:95:6B</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (not associated) </t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>DC:90:09:69:A5:3C</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-12-16 16:16:08</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-12-16 16:16:08</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -59</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        1</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CE:45:68:4C:95:B7</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>36:DE:9C:61:B3:C1</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-12-16 16:16:08</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-12-16 16:16:08</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -61</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        1</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (not associated) </t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2E:F0:3A:E6:DD:0B</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-12-16 16:16:08</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-12-16 16:16:08</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -83</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        1</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (not associated) </t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>0A:B3:DB:80:FD:9A</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-12-16 16:16:10</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-12-16 16:16:10</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -44</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        2</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (not associated) </t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>40:1A:58:5B:38:71</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-12-16 16:16:11</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-12-16 16:16:11</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -84</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        1</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CE:D5:77:BF:97:37</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>E4:1F:D5:C3:25:D5</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-12-16 16:16:11</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-12-16 16:16:12</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  -1</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        4</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 8C:0C:90:7C:38:50</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>7C:70:DB:64:22:79</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-12-16 16:16:12</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-12-16 16:16:12</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> -66</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        4</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 7C:70:DB:64:22:79</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
